--- a/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.422145687485909</v>
+        <v>2.422145687485795</v>
       </c>
       <c r="C2">
-        <v>0.6655963864311332</v>
+        <v>0.6655963864311047</v>
       </c>
       <c r="D2">
-        <v>0.04597469731986337</v>
+        <v>0.0459746973199131</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,16 +427,16 @@
         <v>0.4889832392277</v>
       </c>
       <c r="G2">
-        <v>0.3126322972740354</v>
+        <v>0.3126322972740212</v>
       </c>
       <c r="H2">
-        <v>0.1670336252437643</v>
+        <v>0.1670336252437608</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7004113186088361</v>
+        <v>0.7004113186088574</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.103423068002201</v>
+        <v>2.103423068002314</v>
       </c>
       <c r="C3">
-        <v>0.5783569411608482</v>
+        <v>0.5783569411613882</v>
       </c>
       <c r="D3">
-        <v>0.04200064824754435</v>
+        <v>0.04200064824769356</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4544415872105674</v>
+        <v>0.4544415872105745</v>
       </c>
       <c r="G3">
         <v>0.2986442697077294</v>
       </c>
       <c r="H3">
-        <v>0.1765436977077108</v>
+        <v>0.1765436977077073</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.608280293191477</v>
+        <v>0.6082802931914841</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908471512341123</v>
+        <v>1.908471512341151</v>
       </c>
       <c r="C4">
-        <v>0.5250634875705771</v>
+        <v>0.5250634875706339</v>
       </c>
       <c r="D4">
-        <v>0.03957866809547284</v>
+        <v>0.03957866809572153</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4353407180917586</v>
+        <v>0.4353407180917515</v>
       </c>
       <c r="G4">
         <v>0.29173132587308</v>
       </c>
       <c r="H4">
-        <v>0.1836586994759806</v>
+        <v>0.183658699475977</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5519437171224197</v>
+        <v>0.5519437171224624</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.829169065920951</v>
+        <v>1.829169065920752</v>
       </c>
       <c r="C5">
-        <v>0.5033989045148246</v>
+        <v>0.5033989045143414</v>
       </c>
       <c r="D5">
-        <v>0.03859559828627113</v>
+        <v>0.03859559828627823</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.428048122790706</v>
+        <v>0.4280481227907131</v>
       </c>
       <c r="G5">
-        <v>0.289305991400326</v>
+        <v>0.2893059914003508</v>
       </c>
       <c r="H5">
-        <v>0.1868598514924855</v>
+        <v>0.186859851492482</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5290306022108311</v>
+        <v>0.5290306022108382</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816008256261</v>
+        <v>1.816008256261227</v>
       </c>
       <c r="C6">
         <v>0.4998042835995875</v>
       </c>
       <c r="D6">
-        <v>0.03843257857028703</v>
+        <v>0.03843257857036519</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4268657671410949</v>
+        <v>0.426865767141102</v>
       </c>
       <c r="G6">
-        <v>0.2889260955772102</v>
+        <v>0.2889260955772386</v>
       </c>
       <c r="H6">
         <v>0.1874090886791571</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5252281970519022</v>
+        <v>0.5252281970519448</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>1.907401495106001</v>
       </c>
       <c r="C7">
-        <v>0.5247711167140778</v>
+        <v>0.5247711167139926</v>
       </c>
       <c r="D7">
-        <v>0.03956539506161505</v>
+        <v>0.03956539506173584</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4352404285124791</v>
+        <v>0.4352404285124649</v>
       </c>
       <c r="G7">
-        <v>0.2916970686139564</v>
+        <v>0.2916970686139493</v>
       </c>
       <c r="H7">
-        <v>0.1837006739843758</v>
+        <v>0.1837006739843581</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.551634540324855</v>
+        <v>0.5516345403248408</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.312066871703678</v>
+        <v>2.312066871703848</v>
       </c>
       <c r="C8">
         <v>0.6354501157117909</v>
       </c>
       <c r="D8">
-        <v>0.04460027895189711</v>
+        <v>0.04460027895212448</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,16 +655,16 @@
         <v>0.4766116203327755</v>
       </c>
       <c r="G8">
-        <v>0.3074429860149266</v>
+        <v>0.3074429860149195</v>
       </c>
       <c r="H8">
-        <v>0.1700360575070512</v>
+        <v>0.1700360575070476</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6685876274629834</v>
+        <v>0.6685876274629976</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.113796988974798</v>
+        <v>3.113796988974968</v>
       </c>
       <c r="C9">
-        <v>0.8554157826771416</v>
+        <v>0.8554157826776816</v>
       </c>
       <c r="D9">
         <v>0.05465030479918198</v>
@@ -693,7 +693,7 @@
         <v>0.5763535448028421</v>
       </c>
       <c r="G9">
-        <v>0.3530568267851777</v>
+        <v>0.3530568267851848</v>
       </c>
       <c r="H9">
         <v>0.154285948278801</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.9004666792529008</v>
+        <v>0.900466679252915</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.711314813918193</v>
+        <v>3.71131481391825</v>
       </c>
       <c r="C10">
-        <v>1.019989254001615</v>
+        <v>1.019989254001871</v>
       </c>
       <c r="D10">
-        <v>0.06219401288901594</v>
+        <v>0.06219401288902304</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6638342583981967</v>
+        <v>0.6638342583981682</v>
       </c>
       <c r="G10">
-        <v>0.3977289064933132</v>
+        <v>0.397728906493299</v>
       </c>
       <c r="H10">
-        <v>0.150839495538694</v>
+        <v>0.1508394955386976</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.073439648947897</v>
+        <v>1.07343964894784</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.985853401944951</v>
+        <v>3.98585340194478</v>
       </c>
       <c r="C11">
-        <v>1.09579653869099</v>
+        <v>1.095796538690877</v>
       </c>
       <c r="D11">
-        <v>0.06567400217081598</v>
+        <v>0.06567400217108599</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7074182793360251</v>
+        <v>0.7074182793359967</v>
       </c>
       <c r="G11">
-        <v>0.4210118396261109</v>
+        <v>0.4210118396261393</v>
       </c>
       <c r="H11">
-        <v>0.1513786958557617</v>
+        <v>0.1513786958557652</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.152961814904273</v>
+        <v>1.152961814904344</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.090285490400845</v>
+        <v>4.090285490400959</v>
       </c>
       <c r="C12">
         <v>1.124665465711757</v>
       </c>
       <c r="D12">
-        <v>0.0669999969119317</v>
+        <v>0.06699999691180381</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -807,16 +807,16 @@
         <v>0.7245324234523736</v>
       </c>
       <c r="G12">
-        <v>0.4303042666321275</v>
+        <v>0.4303042666321417</v>
       </c>
       <c r="H12">
-        <v>0.1519177550068704</v>
+        <v>0.1519177550068562</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.183219339835816</v>
+        <v>1.183219339835787</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>4.067771920732696</v>
       </c>
       <c r="C13">
-        <v>1.118440346365105</v>
+        <v>1.118440346365389</v>
       </c>
       <c r="D13">
-        <v>0.06671403407792553</v>
+        <v>0.06671403407815291</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7208183596293338</v>
+        <v>0.7208183596293054</v>
       </c>
       <c r="G13">
-        <v>0.4282809725657017</v>
+        <v>0.4282809725656875</v>
       </c>
       <c r="H13">
         <v>0.1517862235697045</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.17669601821774</v>
+        <v>1.176696018217754</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>1.098168184741354</v>
       </c>
       <c r="D14">
-        <v>0.06578292055394996</v>
+        <v>0.0657829205537297</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,16 +883,16 @@
         <v>0.7088136530916245</v>
       </c>
       <c r="G14">
-        <v>0.4217664964122179</v>
+        <v>0.421766496412225</v>
       </c>
       <c r="H14">
-        <v>0.151416139247381</v>
+        <v>0.1514161392473774</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.155448083320763</v>
+        <v>1.155448083320721</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.949578033237458</v>
+        <v>3.949578033237344</v>
       </c>
       <c r="C15">
         <v>1.085772889921031</v>
       </c>
       <c r="D15">
-        <v>0.06521369395304788</v>
+        <v>0.06521369395293419</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0.7015418799262534</v>
       </c>
       <c r="G15">
-        <v>0.4178397042548667</v>
+        <v>0.4178397042548596</v>
       </c>
       <c r="H15">
-        <v>0.1512340627498574</v>
+        <v>0.151234062749861</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.142452643806678</v>
+        <v>1.142452643806649</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>3.693434430612854</v>
       </c>
       <c r="C16">
-        <v>1.015056261101847</v>
+        <v>1.015056261102501</v>
       </c>
       <c r="D16">
         <v>0.06196766322377556</v>
@@ -962,13 +962,13 @@
         <v>0.3962710519731516</v>
       </c>
       <c r="H16">
-        <v>0.1508493117544596</v>
+        <v>0.1508493117544454</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.068261506075345</v>
+        <v>1.068261506075331</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.537049904093294</v>
+        <v>3.537049904093351</v>
       </c>
       <c r="C17">
-        <v>0.9719334426022215</v>
+        <v>0.9719334426020794</v>
       </c>
       <c r="D17">
-        <v>0.05998954789708932</v>
+        <v>0.05998954789701827</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6372525847447719</v>
+        <v>0.6372525847447861</v>
       </c>
       <c r="G17">
-        <v>0.3838318071106457</v>
+        <v>0.3838318071106528</v>
       </c>
       <c r="H17">
-        <v>0.1511746662709825</v>
+        <v>0.1511746662709967</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.022978071152011</v>
+        <v>1.022978071152025</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.44735298372359</v>
+        <v>3.447352983723533</v>
       </c>
       <c r="C18">
-        <v>0.9472172351000836</v>
+        <v>0.9472172351001973</v>
       </c>
       <c r="D18">
-        <v>0.05885625305639763</v>
+        <v>0.05885625305646158</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,16 +1035,16 @@
         <v>0.623907175192798</v>
       </c>
       <c r="G18">
-        <v>0.3769525616165055</v>
+        <v>0.3769525616165268</v>
       </c>
       <c r="H18">
-        <v>0.1515580398004062</v>
+        <v>0.1515580398003991</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9970093414563337</v>
+        <v>0.9970093414563195</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.417024047531925</v>
+        <v>3.417024047532095</v>
       </c>
       <c r="C19">
-        <v>0.9388629017000483</v>
+        <v>0.938862901700162</v>
       </c>
       <c r="D19">
-        <v>0.05847327000472546</v>
+        <v>0.05847327000460467</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6194472861825489</v>
+        <v>0.6194472861825346</v>
       </c>
       <c r="G19">
-        <v>0.3746692413003743</v>
+        <v>0.374669241300353</v>
       </c>
       <c r="H19">
-        <v>0.1517206257006265</v>
+        <v>0.1517206257006336</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.553670749311379</v>
+        <v>3.553670749311323</v>
       </c>
       <c r="C20">
-        <v>0.976514760697512</v>
+        <v>0.9765147606977962</v>
       </c>
       <c r="D20">
-        <v>0.06019965097495117</v>
+        <v>0.06019965097489433</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0.639750814798191</v>
       </c>
       <c r="G20">
-        <v>0.3851271294461824</v>
+        <v>0.3851271294461753</v>
       </c>
       <c r="H20">
-        <v>0.1511195006445902</v>
+        <v>0.1511195006445867</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.015962537059409</v>
+        <v>4.015962537059352</v>
       </c>
       <c r="C21">
-        <v>1.104117975372958</v>
+        <v>1.104117975373129</v>
       </c>
       <c r="D21">
-        <v>0.06605617795707985</v>
+        <v>0.06605617795696617</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7123226257376842</v>
+        <v>0.7123226257376984</v>
       </c>
       <c r="G21">
-        <v>0.4236666239087441</v>
+        <v>0.423666623908737</v>
       </c>
       <c r="H21">
-        <v>0.1515154837055945</v>
+        <v>0.1515154837055768</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.161684999611424</v>
+        <v>1.16168499961141</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.320880424179791</v>
+        <v>4.320880424179734</v>
       </c>
       <c r="C22">
-        <v>1.188474955462766</v>
+        <v>1.188474955462482</v>
       </c>
       <c r="D22">
-        <v>0.06993223455785369</v>
+        <v>0.06993223455774</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.250046351923103</v>
+        <v>1.250046351923089</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.157857273347474</v>
+        <v>4.157857273347247</v>
       </c>
       <c r="C23">
-        <v>1.143354482956113</v>
+        <v>1.143354482956227</v>
       </c>
       <c r="D23">
-        <v>0.06785862137543575</v>
+        <v>0.06785862137547838</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7357603434191589</v>
+        <v>0.7357603434191731</v>
       </c>
       <c r="G23">
-        <v>0.4364426136244361</v>
+        <v>0.4364426136244433</v>
       </c>
       <c r="H23">
         <v>0.1523627419233335</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.202799552694373</v>
+        <v>1.202799552694401</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.546155814965061</v>
+        <v>3.546155814964777</v>
       </c>
       <c r="C24">
-        <v>0.9744433130733228</v>
+        <v>0.9744433130729249</v>
       </c>
       <c r="D24">
-        <v>0.06010465116249009</v>
+        <v>0.0601046511627743</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6386202916316677</v>
+        <v>0.6386202916316535</v>
       </c>
       <c r="G24">
-        <v>0.3845406699513845</v>
+        <v>0.3845406699513774</v>
       </c>
       <c r="H24">
-        <v>0.1511438318945224</v>
+        <v>0.1511438318945117</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.025614557525188</v>
+        <v>1.025614557525159</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.895689662227426</v>
+        <v>2.895689662227369</v>
       </c>
       <c r="C25">
-        <v>0.7954807619696567</v>
+        <v>0.7954807619696282</v>
       </c>
       <c r="D25">
-        <v>0.05190755730752272</v>
+        <v>0.05190755730752983</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,16 +1301,16 @@
         <v>0.5470982782998206</v>
       </c>
       <c r="G25">
-        <v>0.3389262520322589</v>
+        <v>0.3389262520322447</v>
       </c>
       <c r="H25">
-        <v>0.1572278140809971</v>
+        <v>0.15722781408099</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.837361683723941</v>
+        <v>0.8373616837239126</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.422145687485795</v>
+        <v>2.422145687485909</v>
       </c>
       <c r="C2">
-        <v>0.6655963864311047</v>
+        <v>0.6655963864311332</v>
       </c>
       <c r="D2">
-        <v>0.0459746973199131</v>
+        <v>0.04597469731986337</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -427,16 +427,16 @@
         <v>0.4889832392277</v>
       </c>
       <c r="G2">
-        <v>0.3126322972740212</v>
+        <v>0.3126322972740354</v>
       </c>
       <c r="H2">
-        <v>0.1670336252437608</v>
+        <v>0.1670336252437643</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7004113186088574</v>
+        <v>0.7004113186088361</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.103423068002314</v>
+        <v>2.103423068002201</v>
       </c>
       <c r="C3">
-        <v>0.5783569411613882</v>
+        <v>0.5783569411608482</v>
       </c>
       <c r="D3">
-        <v>0.04200064824769356</v>
+        <v>0.04200064824754435</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4544415872105745</v>
+        <v>0.4544415872105674</v>
       </c>
       <c r="G3">
         <v>0.2986442697077294</v>
       </c>
       <c r="H3">
-        <v>0.1765436977077073</v>
+        <v>0.1765436977077108</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6082802931914841</v>
+        <v>0.608280293191477</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908471512341151</v>
+        <v>1.908471512341123</v>
       </c>
       <c r="C4">
-        <v>0.5250634875706339</v>
+        <v>0.5250634875705771</v>
       </c>
       <c r="D4">
-        <v>0.03957866809572153</v>
+        <v>0.03957866809547284</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4353407180917515</v>
+        <v>0.4353407180917586</v>
       </c>
       <c r="G4">
         <v>0.29173132587308</v>
       </c>
       <c r="H4">
-        <v>0.183658699475977</v>
+        <v>0.1836586994759806</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5519437171224624</v>
+        <v>0.5519437171224197</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.829169065920752</v>
+        <v>1.829169065920951</v>
       </c>
       <c r="C5">
-        <v>0.5033989045143414</v>
+        <v>0.5033989045148246</v>
       </c>
       <c r="D5">
-        <v>0.03859559828627823</v>
+        <v>0.03859559828627113</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4280481227907131</v>
+        <v>0.428048122790706</v>
       </c>
       <c r="G5">
-        <v>0.2893059914003508</v>
+        <v>0.289305991400326</v>
       </c>
       <c r="H5">
-        <v>0.186859851492482</v>
+        <v>0.1868598514924855</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5290306022108382</v>
+        <v>0.5290306022108311</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816008256261227</v>
+        <v>1.816008256261</v>
       </c>
       <c r="C6">
         <v>0.4998042835995875</v>
       </c>
       <c r="D6">
-        <v>0.03843257857036519</v>
+        <v>0.03843257857028703</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.426865767141102</v>
+        <v>0.4268657671410949</v>
       </c>
       <c r="G6">
-        <v>0.2889260955772386</v>
+        <v>0.2889260955772102</v>
       </c>
       <c r="H6">
         <v>0.1874090886791571</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5252281970519448</v>
+        <v>0.5252281970519022</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,28 +605,28 @@
         <v>1.907401495106001</v>
       </c>
       <c r="C7">
-        <v>0.5247711167139926</v>
+        <v>0.5247711167140778</v>
       </c>
       <c r="D7">
-        <v>0.03956539506173584</v>
+        <v>0.03956539506161505</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4352404285124649</v>
+        <v>0.4352404285124791</v>
       </c>
       <c r="G7">
-        <v>0.2916970686139493</v>
+        <v>0.2916970686139564</v>
       </c>
       <c r="H7">
-        <v>0.1837006739843581</v>
+        <v>0.1837006739843758</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5516345403248408</v>
+        <v>0.551634540324855</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.312066871703848</v>
+        <v>2.312066871703678</v>
       </c>
       <c r="C8">
         <v>0.6354501157117909</v>
       </c>
       <c r="D8">
-        <v>0.04460027895212448</v>
+        <v>0.04460027895189711</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -655,16 +655,16 @@
         <v>0.4766116203327755</v>
       </c>
       <c r="G8">
-        <v>0.3074429860149195</v>
+        <v>0.3074429860149266</v>
       </c>
       <c r="H8">
-        <v>0.1700360575070476</v>
+        <v>0.1700360575070512</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.6685876274629976</v>
+        <v>0.6685876274629834</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.113796988974968</v>
+        <v>3.113796988974798</v>
       </c>
       <c r="C9">
-        <v>0.8554157826776816</v>
+        <v>0.8554157826771416</v>
       </c>
       <c r="D9">
         <v>0.05465030479918198</v>
@@ -693,7 +693,7 @@
         <v>0.5763535448028421</v>
       </c>
       <c r="G9">
-        <v>0.3530568267851848</v>
+        <v>0.3530568267851777</v>
       </c>
       <c r="H9">
         <v>0.154285948278801</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.900466679252915</v>
+        <v>0.9004666792529008</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.71131481391825</v>
+        <v>3.711314813918193</v>
       </c>
       <c r="C10">
-        <v>1.019989254001871</v>
+        <v>1.019989254001615</v>
       </c>
       <c r="D10">
-        <v>0.06219401288902304</v>
+        <v>0.06219401288901594</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6638342583981682</v>
+        <v>0.6638342583981967</v>
       </c>
       <c r="G10">
-        <v>0.397728906493299</v>
+        <v>0.3977289064933132</v>
       </c>
       <c r="H10">
-        <v>0.1508394955386976</v>
+        <v>0.150839495538694</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.07343964894784</v>
+        <v>1.073439648947897</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.98585340194478</v>
+        <v>3.985853401944951</v>
       </c>
       <c r="C11">
-        <v>1.095796538690877</v>
+        <v>1.09579653869099</v>
       </c>
       <c r="D11">
-        <v>0.06567400217108599</v>
+        <v>0.06567400217081598</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7074182793359967</v>
+        <v>0.7074182793360251</v>
       </c>
       <c r="G11">
-        <v>0.4210118396261393</v>
+        <v>0.4210118396261109</v>
       </c>
       <c r="H11">
-        <v>0.1513786958557652</v>
+        <v>0.1513786958557617</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.152961814904344</v>
+        <v>1.152961814904273</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.090285490400959</v>
+        <v>4.090285490400845</v>
       </c>
       <c r="C12">
         <v>1.124665465711757</v>
       </c>
       <c r="D12">
-        <v>0.06699999691180381</v>
+        <v>0.0669999969119317</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -807,16 +807,16 @@
         <v>0.7245324234523736</v>
       </c>
       <c r="G12">
-        <v>0.4303042666321417</v>
+        <v>0.4303042666321275</v>
       </c>
       <c r="H12">
-        <v>0.1519177550068562</v>
+        <v>0.1519177550068704</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.183219339835787</v>
+        <v>1.183219339835816</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>4.067771920732696</v>
       </c>
       <c r="C13">
-        <v>1.118440346365389</v>
+        <v>1.118440346365105</v>
       </c>
       <c r="D13">
-        <v>0.06671403407815291</v>
+        <v>0.06671403407792553</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7208183596293054</v>
+        <v>0.7208183596293338</v>
       </c>
       <c r="G13">
-        <v>0.4282809725656875</v>
+        <v>0.4282809725657017</v>
       </c>
       <c r="H13">
         <v>0.1517862235697045</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.176696018217754</v>
+        <v>1.17669601821774</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>1.098168184741354</v>
       </c>
       <c r="D14">
-        <v>0.0657829205537297</v>
+        <v>0.06578292055394996</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -883,16 +883,16 @@
         <v>0.7088136530916245</v>
       </c>
       <c r="G14">
-        <v>0.421766496412225</v>
+        <v>0.4217664964122179</v>
       </c>
       <c r="H14">
-        <v>0.1514161392473774</v>
+        <v>0.151416139247381</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.155448083320721</v>
+        <v>1.155448083320763</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.949578033237344</v>
+        <v>3.949578033237458</v>
       </c>
       <c r="C15">
         <v>1.085772889921031</v>
       </c>
       <c r="D15">
-        <v>0.06521369395293419</v>
+        <v>0.06521369395304788</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0.7015418799262534</v>
       </c>
       <c r="G15">
-        <v>0.4178397042548596</v>
+        <v>0.4178397042548667</v>
       </c>
       <c r="H15">
-        <v>0.151234062749861</v>
+        <v>0.1512340627498574</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.142452643806649</v>
+        <v>1.142452643806678</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>3.693434430612854</v>
       </c>
       <c r="C16">
-        <v>1.015056261102501</v>
+        <v>1.015056261101847</v>
       </c>
       <c r="D16">
         <v>0.06196766322377556</v>
@@ -962,13 +962,13 @@
         <v>0.3962710519731516</v>
       </c>
       <c r="H16">
-        <v>0.1508493117544454</v>
+        <v>0.1508493117544596</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.068261506075331</v>
+        <v>1.068261506075345</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.537049904093351</v>
+        <v>3.537049904093294</v>
       </c>
       <c r="C17">
-        <v>0.9719334426020794</v>
+        <v>0.9719334426022215</v>
       </c>
       <c r="D17">
-        <v>0.05998954789701827</v>
+        <v>0.05998954789708932</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6372525847447861</v>
+        <v>0.6372525847447719</v>
       </c>
       <c r="G17">
-        <v>0.3838318071106528</v>
+        <v>0.3838318071106457</v>
       </c>
       <c r="H17">
-        <v>0.1511746662709967</v>
+        <v>0.1511746662709825</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.022978071152025</v>
+        <v>1.022978071152011</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.447352983723533</v>
+        <v>3.44735298372359</v>
       </c>
       <c r="C18">
-        <v>0.9472172351001973</v>
+        <v>0.9472172351000836</v>
       </c>
       <c r="D18">
-        <v>0.05885625305646158</v>
+        <v>0.05885625305639763</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1035,16 +1035,16 @@
         <v>0.623907175192798</v>
       </c>
       <c r="G18">
-        <v>0.3769525616165268</v>
+        <v>0.3769525616165055</v>
       </c>
       <c r="H18">
-        <v>0.1515580398003991</v>
+        <v>0.1515580398004062</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9970093414563195</v>
+        <v>0.9970093414563337</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.417024047532095</v>
+        <v>3.417024047531925</v>
       </c>
       <c r="C19">
-        <v>0.938862901700162</v>
+        <v>0.9388629017000483</v>
       </c>
       <c r="D19">
-        <v>0.05847327000460467</v>
+        <v>0.05847327000472546</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6194472861825346</v>
+        <v>0.6194472861825489</v>
       </c>
       <c r="G19">
-        <v>0.374669241300353</v>
+        <v>0.3746692413003743</v>
       </c>
       <c r="H19">
-        <v>0.1517206257006336</v>
+        <v>0.1517206257006265</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.553670749311323</v>
+        <v>3.553670749311379</v>
       </c>
       <c r="C20">
-        <v>0.9765147606977962</v>
+        <v>0.976514760697512</v>
       </c>
       <c r="D20">
-        <v>0.06019965097489433</v>
+        <v>0.06019965097495117</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0.639750814798191</v>
       </c>
       <c r="G20">
-        <v>0.3851271294461753</v>
+        <v>0.3851271294461824</v>
       </c>
       <c r="H20">
-        <v>0.1511195006445867</v>
+        <v>0.1511195006445902</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.015962537059352</v>
+        <v>4.015962537059409</v>
       </c>
       <c r="C21">
-        <v>1.104117975373129</v>
+        <v>1.104117975372958</v>
       </c>
       <c r="D21">
-        <v>0.06605617795696617</v>
+        <v>0.06605617795707985</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7123226257376984</v>
+        <v>0.7123226257376842</v>
       </c>
       <c r="G21">
-        <v>0.423666623908737</v>
+        <v>0.4236666239087441</v>
       </c>
       <c r="H21">
-        <v>0.1515154837055768</v>
+        <v>0.1515154837055945</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.16168499961141</v>
+        <v>1.161684999611424</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.320880424179734</v>
+        <v>4.320880424179791</v>
       </c>
       <c r="C22">
-        <v>1.188474955462482</v>
+        <v>1.188474955462766</v>
       </c>
       <c r="D22">
-        <v>0.06993223455774</v>
+        <v>0.06993223455785369</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.250046351923089</v>
+        <v>1.250046351923103</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.157857273347247</v>
+        <v>4.157857273347474</v>
       </c>
       <c r="C23">
-        <v>1.143354482956227</v>
+        <v>1.143354482956113</v>
       </c>
       <c r="D23">
-        <v>0.06785862137547838</v>
+        <v>0.06785862137543575</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7357603434191731</v>
+        <v>0.7357603434191589</v>
       </c>
       <c r="G23">
-        <v>0.4364426136244433</v>
+        <v>0.4364426136244361</v>
       </c>
       <c r="H23">
         <v>0.1523627419233335</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.202799552694401</v>
+        <v>1.202799552694373</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.546155814964777</v>
+        <v>3.546155814965061</v>
       </c>
       <c r="C24">
-        <v>0.9744433130729249</v>
+        <v>0.9744433130733228</v>
       </c>
       <c r="D24">
-        <v>0.0601046511627743</v>
+        <v>0.06010465116249009</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6386202916316535</v>
+        <v>0.6386202916316677</v>
       </c>
       <c r="G24">
-        <v>0.3845406699513774</v>
+        <v>0.3845406699513845</v>
       </c>
       <c r="H24">
-        <v>0.1511438318945117</v>
+        <v>0.1511438318945224</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.025614557525159</v>
+        <v>1.025614557525188</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.895689662227369</v>
+        <v>2.895689662227426</v>
       </c>
       <c r="C25">
-        <v>0.7954807619696282</v>
+        <v>0.7954807619696567</v>
       </c>
       <c r="D25">
-        <v>0.05190755730752983</v>
+        <v>0.05190755730752272</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,16 +1301,16 @@
         <v>0.5470982782998206</v>
       </c>
       <c r="G25">
-        <v>0.3389262520322447</v>
+        <v>0.3389262520322589</v>
       </c>
       <c r="H25">
-        <v>0.15722781408099</v>
+        <v>0.1572278140809971</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8373616837239126</v>
+        <v>0.837361683723941</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.422145687485909</v>
+        <v>2.422175167331147</v>
       </c>
       <c r="C2">
-        <v>0.6655963864311332</v>
+        <v>0.6654438951974839</v>
       </c>
       <c r="D2">
-        <v>0.04597469731986337</v>
+        <v>0.04603418923220914</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4889832392277</v>
+        <v>0.4883896511614054</v>
       </c>
       <c r="G2">
-        <v>0.3126322972740354</v>
+        <v>0.09046382086600602</v>
       </c>
       <c r="H2">
-        <v>0.1670336252437643</v>
+        <v>0.2261526951969302</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1667817659976016</v>
       </c>
       <c r="J2">
-        <v>0.7004113186088361</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7003726493948719</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.103423068002201</v>
+        <v>2.103463581588414</v>
       </c>
       <c r="C3">
-        <v>0.5783569411608482</v>
+        <v>0.578230772247565</v>
       </c>
       <c r="D3">
-        <v>0.04200064824754435</v>
+        <v>0.04205108975478566</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4544415872105674</v>
+        <v>0.45389762944761</v>
       </c>
       <c r="G3">
-        <v>0.2986442697077294</v>
+        <v>0.08353793088490136</v>
       </c>
       <c r="H3">
-        <v>0.1765436977077108</v>
+        <v>0.2191621875704683</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1763039898476748</v>
       </c>
       <c r="J3">
-        <v>0.608280293191477</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6082513576344368</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.908471512341123</v>
+        <v>1.90851725895601</v>
       </c>
       <c r="C4">
-        <v>0.5250634875705771</v>
+        <v>0.5249529207715682</v>
       </c>
       <c r="D4">
-        <v>0.03957866809547284</v>
+        <v>0.03962342622498483</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4353407180917586</v>
+        <v>0.4348255648583219</v>
       </c>
       <c r="G4">
-        <v>0.29173132587308</v>
+        <v>0.07980743488038655</v>
       </c>
       <c r="H4">
-        <v>0.1836586994759806</v>
+        <v>0.2160213646563349</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1834255102975852</v>
       </c>
       <c r="J4">
-        <v>0.5519437171224197</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5519202802581518</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.829169065920951</v>
+        <v>1.829216603500356</v>
       </c>
       <c r="C5">
-        <v>0.5033989045148246</v>
+        <v>0.5032945762692691</v>
       </c>
       <c r="D5">
-        <v>0.03859559828627113</v>
+        <v>0.03863800967089759</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.428048122790706</v>
+        <v>0.4275443311900275</v>
       </c>
       <c r="G5">
-        <v>0.289305991400326</v>
+        <v>0.07840832748208015</v>
       </c>
       <c r="H5">
-        <v>0.1868598514924855</v>
+        <v>0.215011570155216</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1866291019984843</v>
       </c>
       <c r="J5">
-        <v>0.5290306022108311</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.529009301479654</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816008256261</v>
+        <v>1.816056071879245</v>
       </c>
       <c r="C6">
-        <v>0.4998042835995875</v>
+        <v>0.4997009846393325</v>
       </c>
       <c r="D6">
-        <v>0.03843257857028703</v>
+        <v>0.03847459845382417</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4268657671410949</v>
+        <v>0.4263638405860917</v>
       </c>
       <c r="G6">
-        <v>0.2889260955772102</v>
+        <v>0.07818303565071005</v>
       </c>
       <c r="H6">
-        <v>0.1874090886791571</v>
+        <v>0.2148596645144387</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1871787317610618</v>
       </c>
       <c r="J6">
-        <v>0.5252281970519022</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.525207245134645</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907401495106001</v>
+        <v>1.907447267199103</v>
       </c>
       <c r="C7">
-        <v>0.5247711167140778</v>
+        <v>0.5246606345068017</v>
       </c>
       <c r="D7">
-        <v>0.03956539506161505</v>
+        <v>0.03961012166517008</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4352404285124791</v>
+        <v>0.4347254299758632</v>
       </c>
       <c r="G7">
-        <v>0.2916970686139564</v>
+        <v>0.07978808867467535</v>
       </c>
       <c r="H7">
-        <v>0.1837006739843758</v>
+        <v>0.216006677284831</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1834675185604624</v>
       </c>
       <c r="J7">
-        <v>0.551634540324855</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5516111326732371</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.312066871703678</v>
+        <v>2.312100504955026</v>
       </c>
       <c r="C8">
-        <v>0.6354501157117909</v>
+        <v>0.6353068300432483</v>
       </c>
       <c r="D8">
-        <v>0.04460027895189711</v>
+        <v>0.04465667717700939</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4766116203327755</v>
+        <v>0.4760355183142053</v>
       </c>
       <c r="G8">
-        <v>0.3074429860149266</v>
+        <v>0.08796110213980768</v>
       </c>
       <c r="H8">
-        <v>0.1700360575070512</v>
+        <v>0.2234913288753191</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1697885963782682</v>
       </c>
       <c r="J8">
-        <v>0.6685876274629834</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.668552423335214</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.113796988974798</v>
+        <v>3.113792288533261</v>
       </c>
       <c r="C9">
-        <v>0.8554157826771416</v>
+        <v>0.8552026617190904</v>
       </c>
       <c r="D9">
-        <v>0.05465030479918198</v>
+        <v>0.05472853698631752</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5763535448028421</v>
+        <v>0.575642213745958</v>
       </c>
       <c r="G9">
-        <v>0.3530568267851777</v>
+        <v>0.108624437555541</v>
       </c>
       <c r="H9">
-        <v>0.154285948278801</v>
+        <v>0.2482469835727059</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1540019421191161</v>
       </c>
       <c r="J9">
-        <v>0.9004666792529008</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9004037779712633</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.711314813918193</v>
+        <v>3.711269515538845</v>
       </c>
       <c r="C10">
-        <v>1.019989254001615</v>
+        <v>1.019719806191119</v>
       </c>
       <c r="D10">
-        <v>0.06219401288901594</v>
+        <v>0.06228756608343389</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6638342583981967</v>
+        <v>0.6630107861974039</v>
       </c>
       <c r="G10">
-        <v>0.3977289064933132</v>
+        <v>0.127378788568862</v>
       </c>
       <c r="H10">
-        <v>0.150839495538694</v>
+        <v>0.2740035004966259</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1505218696065818</v>
       </c>
       <c r="J10">
-        <v>1.073439648947897</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.073352411567299</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.985853401944951</v>
+        <v>3.985786012244318</v>
       </c>
       <c r="C11">
-        <v>1.09579653869099</v>
+        <v>1.095499948820134</v>
       </c>
       <c r="D11">
-        <v>0.06567400217081598</v>
+        <v>0.06577434887587685</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7074182793360251</v>
+        <v>0.7065401334193666</v>
       </c>
       <c r="G11">
-        <v>0.4210118396261109</v>
+        <v>0.1368707811913907</v>
       </c>
       <c r="H11">
-        <v>0.1513786958557617</v>
+        <v>0.2877159700574836</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1510438910245888</v>
       </c>
       <c r="J11">
-        <v>1.152961814904273</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.152862330288443</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.090285490400845</v>
+        <v>4.090209125094646</v>
       </c>
       <c r="C12">
-        <v>1.124665465711757</v>
+        <v>1.124358338265722</v>
       </c>
       <c r="D12">
-        <v>0.0669999969119317</v>
+        <v>0.06710288884614357</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7245324234523736</v>
+        <v>0.7236329624025615</v>
       </c>
       <c r="G12">
-        <v>0.4303042666321275</v>
+        <v>0.1406204002410405</v>
       </c>
       <c r="H12">
-        <v>0.1519177550068704</v>
+        <v>0.2932282095286425</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1515761336435197</v>
       </c>
       <c r="J12">
-        <v>1.183219339835816</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.18311501834846</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.067771920732696</v>
+        <v>4.067697517163879</v>
       </c>
       <c r="C13">
-        <v>1.118440346365105</v>
+        <v>1.118135500626465</v>
       </c>
       <c r="D13">
-        <v>0.06671403407792553</v>
+        <v>0.06681637910184435</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7208183596293338</v>
+        <v>0.7199235178443217</v>
       </c>
       <c r="G13">
-        <v>0.4282809725657017</v>
+        <v>0.1398056593979788</v>
       </c>
       <c r="H13">
-        <v>0.1517862235697045</v>
+        <v>0.2920262797012185</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1514460848107824</v>
       </c>
       <c r="J13">
-        <v>1.17669601821774</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.176592747811313</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.994435189714352</v>
+        <v>3.99436707436513</v>
       </c>
       <c r="C14">
-        <v>1.098168184741354</v>
+        <v>1.097870733392739</v>
       </c>
       <c r="D14">
-        <v>0.06578292055394996</v>
+        <v>0.06588347721662302</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7088136530916245</v>
+        <v>0.707933766347395</v>
       </c>
       <c r="G14">
-        <v>0.4217664964122179</v>
+        <v>0.1371760500698755</v>
       </c>
       <c r="H14">
-        <v>0.151416139247381</v>
+        <v>0.2881628608848672</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1510807801038254</v>
       </c>
       <c r="J14">
-        <v>1.155448083320763</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.155348204948396</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.949578033237458</v>
+        <v>3.949513687306307</v>
       </c>
       <c r="C15">
-        <v>1.085772889921031</v>
+        <v>1.085479932748711</v>
       </c>
       <c r="D15">
-        <v>0.06521369395304788</v>
+        <v>0.06531315157032935</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7015418799262534</v>
+        <v>0.7006710712363287</v>
       </c>
       <c r="G15">
-        <v>0.4178397042548667</v>
+        <v>0.1355860870914398</v>
       </c>
       <c r="H15">
-        <v>0.1512340627498574</v>
+        <v>0.2858390544701308</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1509015894378969</v>
       </c>
       <c r="J15">
-        <v>1.142452643806678</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.142354816268593</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.693434430612854</v>
+        <v>3.693390495691233</v>
       </c>
       <c r="C16">
-        <v>1.015056261101847</v>
+        <v>1.014788553136611</v>
       </c>
       <c r="D16">
-        <v>0.06196766322377556</v>
+        <v>0.06206076873748145</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6610675914503474</v>
+        <v>0.6602476116373026</v>
       </c>
       <c r="G16">
-        <v>0.3962710519731516</v>
+        <v>0.126779215290739</v>
       </c>
       <c r="H16">
-        <v>0.1508493117544596</v>
+        <v>0.2731502346778925</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1505327672579071</v>
       </c>
       <c r="J16">
-        <v>1.068261506075345</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.068175042933888</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.537049904093294</v>
+        <v>3.53701750285046</v>
       </c>
       <c r="C17">
-        <v>0.9719334426022215</v>
+        <v>0.9716808076240966</v>
       </c>
       <c r="D17">
-        <v>0.05998954789708932</v>
+        <v>0.06007871015378896</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6372525847447719</v>
+        <v>0.636462792291141</v>
       </c>
       <c r="G17">
-        <v>0.3838318071106457</v>
+        <v>0.1216341374728742</v>
       </c>
       <c r="H17">
-        <v>0.1511746662709825</v>
+        <v>0.2658994339467853</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1508673838367436</v>
       </c>
       <c r="J17">
-        <v>1.022978071152011</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.022898258241582</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.44735298372359</v>
+        <v>3.447326881293748</v>
       </c>
       <c r="C18">
-        <v>0.9472172351000836</v>
+        <v>0.946973129509189</v>
       </c>
       <c r="D18">
-        <v>0.05885625305639763</v>
+        <v>0.05894313081545732</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.623907175192798</v>
+        <v>0.6231344069132518</v>
       </c>
       <c r="G18">
-        <v>0.3769525616165055</v>
+        <v>0.1187641186356956</v>
       </c>
       <c r="H18">
-        <v>0.1515580398004062</v>
+        <v>0.2619146747539318</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1512559099281532</v>
       </c>
       <c r="J18">
-        <v>0.9970093414563337</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9969332448373081</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.417024047531925</v>
+        <v>3.417000022756895</v>
       </c>
       <c r="C19">
-        <v>0.9388629017000483</v>
+        <v>0.9386216611016778</v>
       </c>
       <c r="D19">
-        <v>0.05847327000472546</v>
+        <v>0.05855937150523971</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6194472861825489</v>
+        <v>0.6186802262189417</v>
       </c>
       <c r="G19">
-        <v>0.3746692413003743</v>
+        <v>0.1178072223758733</v>
       </c>
       <c r="H19">
-        <v>0.1517206257006265</v>
+        <v>0.2605964565419256</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1514202115252026</v>
       </c>
       <c r="J19">
-        <v>0.9882293259067154</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9881544697327058</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.553670749311379</v>
+        <v>3.553637155574393</v>
       </c>
       <c r="C20">
-        <v>0.976514760697512</v>
+        <v>0.9762605359653094</v>
       </c>
       <c r="D20">
-        <v>0.06019965097495117</v>
+        <v>0.06028923471318137</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.639750814798191</v>
+        <v>0.6389578444933335</v>
       </c>
       <c r="G20">
-        <v>0.3851271294461824</v>
+        <v>0.1221724798066433</v>
       </c>
       <c r="H20">
-        <v>0.1511195006445902</v>
+        <v>0.2666518475517279</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.150811250606008</v>
       </c>
       <c r="J20">
-        <v>1.02779042385697</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.027709914477299</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.015962537059409</v>
+        <v>4.015892592034163</v>
       </c>
       <c r="C21">
-        <v>1.104117975372958</v>
+        <v>1.10381835950858</v>
       </c>
       <c r="D21">
-        <v>0.06605617795707985</v>
+        <v>0.06615726066362981</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7123226257376842</v>
+        <v>0.7114383636632766</v>
       </c>
       <c r="G21">
-        <v>0.4236666239087441</v>
+        <v>0.1379440731377954</v>
       </c>
       <c r="H21">
-        <v>0.1515154837055945</v>
+        <v>0.2892886896540716</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.151178729468139</v>
       </c>
       <c r="J21">
-        <v>1.161684999611424</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.161584130578191</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.320880424179791</v>
+        <v>4.320783115142376</v>
       </c>
       <c r="C22">
-        <v>1.188474955462766</v>
+        <v>1.188144138405846</v>
       </c>
       <c r="D22">
-        <v>0.06993223455785369</v>
+        <v>0.07004067209680187</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7633419782388273</v>
+        <v>0.7623944399992126</v>
       </c>
       <c r="G22">
-        <v>0.4516539230501593</v>
+        <v>0.1491655897615161</v>
       </c>
       <c r="H22">
-        <v>0.1537433410882336</v>
+        <v>0.3059637805245998</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.153386120685898</v>
       </c>
       <c r="J22">
-        <v>1.250046351923103</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.249930999279528</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.157857273347474</v>
+        <v>4.157774931589984</v>
       </c>
       <c r="C23">
-        <v>1.143354482956113</v>
+        <v>1.14304047407586</v>
       </c>
       <c r="D23">
-        <v>0.06785862137543575</v>
+        <v>0.06796314891357724</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7357603434191589</v>
+        <v>0.734846938527383</v>
       </c>
       <c r="G23">
-        <v>0.4364426136244361</v>
+        <v>0.1430867343995104</v>
       </c>
       <c r="H23">
-        <v>0.1523627419233335</v>
+        <v>0.2968802328471796</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1520166275441142</v>
       </c>
       <c r="J23">
-        <v>1.202799552694373</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.202692048900659</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.546155814965061</v>
+        <v>3.546122761382378</v>
       </c>
       <c r="C24">
-        <v>0.9744433130733228</v>
+        <v>0.9741898074897506</v>
       </c>
       <c r="D24">
-        <v>0.06010465116249009</v>
+        <v>0.06019404440337439</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6386202916316677</v>
+        <v>0.6378287590578537</v>
       </c>
       <c r="G24">
-        <v>0.3845406699513845</v>
+        <v>0.1219288225478152</v>
       </c>
       <c r="H24">
-        <v>0.1511438318945224</v>
+        <v>0.266311111221782</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1508360198436094</v>
       </c>
       <c r="J24">
-        <v>1.025614557525188</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.025534363350332</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.895689662227426</v>
+        <v>2.895697232078135</v>
       </c>
       <c r="C25">
-        <v>0.7954807619696567</v>
+        <v>0.7952872830801141</v>
       </c>
       <c r="D25">
-        <v>0.05190755730752272</v>
+        <v>0.05198000317894724</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5470982782998206</v>
+        <v>0.546425506002052</v>
       </c>
       <c r="G25">
-        <v>0.3389262520322589</v>
+        <v>0.1024649581304473</v>
       </c>
       <c r="H25">
-        <v>0.1572278140809971</v>
+        <v>0.2403313957758613</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1569547563847493</v>
       </c>
       <c r="J25">
-        <v>0.837361683723941</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8373068799593995</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.422175167331147</v>
+        <v>1.799292164447365</v>
       </c>
       <c r="C2">
-        <v>0.6654438951974839</v>
+        <v>0.3509080934307462</v>
       </c>
       <c r="D2">
-        <v>0.04603418923220914</v>
+        <v>0.06180738687540099</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4883896511614054</v>
+        <v>6.866413248826376</v>
       </c>
       <c r="G2">
-        <v>0.09046382086600602</v>
+        <v>0.000823584351460977</v>
       </c>
       <c r="H2">
-        <v>0.2261526951969302</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1667817659976016</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1956795318333207</v>
       </c>
       <c r="K2">
-        <v>0.7003726493948719</v>
+        <v>0.4755551831848663</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.4183239975724291</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.103463581588414</v>
+        <v>1.554533637305184</v>
       </c>
       <c r="C3">
-        <v>0.578230772247565</v>
+        <v>0.2998602390247527</v>
       </c>
       <c r="D3">
-        <v>0.04205108975478566</v>
+        <v>0.05274807275848303</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.45389762944761</v>
+        <v>6.152942772744296</v>
       </c>
       <c r="G3">
-        <v>0.08353793088490136</v>
+        <v>0.0008340821584744599</v>
       </c>
       <c r="H3">
-        <v>0.2191621875704683</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1763039898476748</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1797106566873836</v>
       </c>
       <c r="K3">
-        <v>0.6082513576344368</v>
+        <v>0.4096916539803672</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.364944007686276</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.90851725895601</v>
+        <v>1.408420735077385</v>
       </c>
       <c r="C4">
-        <v>0.5249529207715682</v>
+        <v>0.2694820394309545</v>
       </c>
       <c r="D4">
-        <v>0.03962342622498483</v>
+        <v>0.04733846387188123</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4348255648583219</v>
+        <v>5.7251157361612</v>
       </c>
       <c r="G4">
-        <v>0.07980743488038655</v>
+        <v>0.0008406674018464544</v>
       </c>
       <c r="H4">
-        <v>0.2160213646563349</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1834255102975852</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1702114972914472</v>
       </c>
       <c r="K4">
-        <v>0.5519202802581518</v>
+        <v>0.3704022018316948</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.3332826985066717</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.829216603500356</v>
+        <v>1.349793105781856</v>
       </c>
       <c r="C5">
-        <v>0.5032945762692691</v>
+        <v>0.2573119757565792</v>
       </c>
       <c r="D5">
-        <v>0.03863800967089759</v>
+        <v>0.04516644872212083</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4275443311900275</v>
+        <v>5.552994095549394</v>
       </c>
       <c r="G5">
-        <v>0.07840832748208015</v>
+        <v>0.0008433888327934982</v>
       </c>
       <c r="H5">
-        <v>0.215011570155216</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1866291019984843</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1664088373710513</v>
       </c>
       <c r="K5">
-        <v>0.529009301479654</v>
+        <v>0.3546432082419244</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.3206283876426781</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816056071879245</v>
+        <v>1.340109610693361</v>
       </c>
       <c r="C6">
-        <v>0.4997009846393325</v>
+        <v>0.2553028761133191</v>
       </c>
       <c r="D6">
-        <v>0.03847459845382417</v>
+        <v>0.04480758272887186</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4263638405860917</v>
+        <v>5.524537857639217</v>
       </c>
       <c r="G6">
-        <v>0.07818303565071005</v>
+        <v>0.000843843089735913</v>
       </c>
       <c r="H6">
-        <v>0.2148596645144387</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1871787317610618</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1657813005037028</v>
       </c>
       <c r="K6">
-        <v>0.525207245134645</v>
+        <v>0.3520406183138292</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.3185412429714418</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.907447267199103</v>
+        <v>1.407626526485387</v>
       </c>
       <c r="C7">
-        <v>0.5246606345068017</v>
+        <v>0.2693171038842763</v>
       </c>
       <c r="D7">
-        <v>0.03961012166517008</v>
+        <v>0.04730904744223352</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4347254299758632</v>
+        <v>5.722785893825915</v>
       </c>
       <c r="G7">
-        <v>0.07978808867467535</v>
+        <v>0.0008407039471317918</v>
       </c>
       <c r="H7">
-        <v>0.216006677284831</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1834675185604624</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1701599473632314</v>
       </c>
       <c r="K7">
-        <v>0.5516111326732371</v>
+        <v>0.3701886980501499</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.3331110744029999</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.312100504955026</v>
+        <v>1.713948813461712</v>
       </c>
       <c r="C8">
-        <v>0.6353068300432483</v>
+        <v>0.3330851100703853</v>
       </c>
       <c r="D8">
-        <v>0.04465667717700939</v>
+        <v>0.05864821303773482</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4760355183142053</v>
+        <v>6.618056615608936</v>
       </c>
       <c r="G8">
-        <v>0.08796110213980768</v>
+        <v>0.000827176805769477</v>
       </c>
       <c r="H8">
-        <v>0.2234913288753191</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1697885963782682</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1901045596669491</v>
       </c>
       <c r="K8">
-        <v>0.668552423335214</v>
+        <v>0.4525825921824094</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.3996668104949137</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.113792288533261</v>
+        <v>2.354623166765066</v>
       </c>
       <c r="C9">
-        <v>0.8552026617190904</v>
+        <v>0.4675245083877542</v>
       </c>
       <c r="D9">
-        <v>0.05472853698631752</v>
+        <v>0.08240333247881182</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.575642213745958</v>
+        <v>8.473153455481963</v>
       </c>
       <c r="G9">
-        <v>0.108624437555541</v>
+        <v>0.0008016145640974797</v>
       </c>
       <c r="H9">
-        <v>0.2482469835727059</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1540019421191161</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2320808115163331</v>
       </c>
       <c r="K9">
-        <v>0.9004037779712633</v>
+        <v>0.625229399902139</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.5406838524672608</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.711269515538845</v>
+        <v>2.860868631813844</v>
       </c>
       <c r="C10">
-        <v>1.019719806191119</v>
+        <v>0.5748470286286533</v>
       </c>
       <c r="D10">
-        <v>0.06228756608343389</v>
+        <v>0.1012759344773571</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6630107861974039</v>
+        <v>9.925995584719658</v>
       </c>
       <c r="G10">
-        <v>0.127378788568862</v>
+        <v>0.0007831925561725122</v>
       </c>
       <c r="H10">
-        <v>0.2740035004966259</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1505218696065818</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2653739257089001</v>
       </c>
       <c r="K10">
-        <v>1.073352411567299</v>
+        <v>0.7619731014297102</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.6533859116698579</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.985786012244318</v>
+        <v>3.101927373245303</v>
       </c>
       <c r="C11">
-        <v>1.095499948820134</v>
+        <v>0.6263035052519967</v>
       </c>
       <c r="D11">
-        <v>0.06577434887587685</v>
+        <v>0.110303347619805</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7065401334193666</v>
+        <v>10.61433865147086</v>
       </c>
       <c r="G11">
-        <v>0.1368707811913907</v>
+        <v>0.0007748281185232884</v>
       </c>
       <c r="H11">
-        <v>0.2877159700574836</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1510438910245888</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.281243031676226</v>
       </c>
       <c r="K11">
-        <v>1.152862330288443</v>
+        <v>0.8271897061215157</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.7073661881710365</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.090209125094646</v>
+        <v>3.195065519498144</v>
       </c>
       <c r="C12">
-        <v>1.124358338265722</v>
+        <v>0.646246972828493</v>
       </c>
       <c r="D12">
-        <v>0.06710288884614357</v>
+        <v>0.1137988549867543</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7236329624025615</v>
+        <v>10.87973430543599</v>
       </c>
       <c r="G12">
-        <v>0.1406204002410405</v>
+        <v>0.000771656816725488</v>
       </c>
       <c r="H12">
-        <v>0.2932282095286425</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1515761336435197</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2873754955344054</v>
       </c>
       <c r="K12">
-        <v>1.18311501834846</v>
+        <v>0.8524056897885401</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0.7282714465332063</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.067697517163879</v>
+        <v>3.174918606678716</v>
       </c>
       <c r="C13">
-        <v>1.118135500626465</v>
+        <v>0.6419300009069673</v>
       </c>
       <c r="D13">
-        <v>0.06681637910184435</v>
+        <v>0.1130423698953678</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7199235178443217</v>
+        <v>10.82235196399603</v>
       </c>
       <c r="G13">
-        <v>0.1398056593979788</v>
+        <v>0.0007723400947996506</v>
       </c>
       <c r="H13">
-        <v>0.2920262797012185</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1514460848107824</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2860489419269925</v>
       </c>
       <c r="K13">
-        <v>1.176592747811313</v>
+        <v>0.8469503026253165</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.7237471590878926</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.99436707436513</v>
+        <v>3.109550788579099</v>
       </c>
       <c r="C14">
-        <v>1.097870733392739</v>
+        <v>0.6279345812532995</v>
       </c>
       <c r="D14">
-        <v>0.06588347721662302</v>
+        <v>0.1105892960863883</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.707933766347395</v>
+        <v>10.63607300447637</v>
       </c>
       <c r="G14">
-        <v>0.1371760500698755</v>
+        <v>0.0007745673298771294</v>
       </c>
       <c r="H14">
-        <v>0.2881628608848672</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1510807801038254</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.281744963444126</v>
       </c>
       <c r="K14">
-        <v>1.155348204948396</v>
+        <v>0.8292532677828461</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.709076302676138</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.949513687306307</v>
+        <v>3.069762635576296</v>
       </c>
       <c r="C15">
-        <v>1.085479932748711</v>
+        <v>0.6194242274767419</v>
       </c>
       <c r="D15">
-        <v>0.06531315157032935</v>
+        <v>0.1090971868829484</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7006710712363287</v>
+        <v>10.52261415345214</v>
       </c>
       <c r="G15">
-        <v>0.1355860870914398</v>
+        <v>0.0007759308712834862</v>
       </c>
       <c r="H15">
-        <v>0.2858390544701308</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1509015894378969</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2791253158912212</v>
       </c>
       <c r="K15">
-        <v>1.142354816268593</v>
+        <v>0.8184838691094285</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.7001528462142232</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.693390495691233</v>
+        <v>2.845356492913254</v>
       </c>
       <c r="C16">
-        <v>1.014788553136611</v>
+        <v>0.5715436891139802</v>
       </c>
       <c r="D16">
-        <v>0.06206076873748145</v>
+        <v>0.1006959664511555</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6602476116373026</v>
+        <v>9.881627368308415</v>
       </c>
       <c r="G16">
-        <v>0.126779215290739</v>
+        <v>0.0007837390083087084</v>
       </c>
       <c r="H16">
-        <v>0.2731502346778925</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1505327672579071</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2643529679738492</v>
       </c>
       <c r="K16">
-        <v>1.068175042933888</v>
+        <v>0.757778717952803</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.649918786373668</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.53701750285046</v>
+        <v>2.71064962507478</v>
       </c>
       <c r="C17">
-        <v>0.9716808076240966</v>
+        <v>0.5428973371567736</v>
       </c>
       <c r="D17">
-        <v>0.06007871015378896</v>
+        <v>0.09566420335453074</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.636462792291141</v>
+        <v>9.495951581935913</v>
       </c>
       <c r="G17">
-        <v>0.1216341374728742</v>
+        <v>0.0007885290426684118</v>
       </c>
       <c r="H17">
-        <v>0.2658994339467853</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1508673838367436</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2554886197531658</v>
       </c>
       <c r="K17">
-        <v>1.022898258241582</v>
+        <v>0.7213664805287081</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.6198451483525886</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.447326881293748</v>
+        <v>2.634161897612159</v>
       </c>
       <c r="C18">
-        <v>0.946973129509189</v>
+        <v>0.5266632320181373</v>
       </c>
       <c r="D18">
-        <v>0.05894313081545732</v>
+        <v>0.09281075938714167</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6231344069132518</v>
+        <v>9.276649335543539</v>
       </c>
       <c r="G18">
-        <v>0.1187641186356956</v>
+        <v>0.000791286056012197</v>
       </c>
       <c r="H18">
-        <v>0.2619146747539318</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1512559099281532</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2504569053161276</v>
       </c>
       <c r="K18">
-        <v>0.9969332448373081</v>
+        <v>0.7007005460309799</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.6027976828333408</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.417000022756895</v>
+        <v>2.608426368126288</v>
       </c>
       <c r="C19">
-        <v>0.9386216611016778</v>
+        <v>0.5212061117063058</v>
       </c>
       <c r="D19">
-        <v>0.05855937150523971</v>
+        <v>0.09185124826921509</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6186802262189417</v>
+        <v>9.202809641910164</v>
       </c>
       <c r="G19">
-        <v>0.1178072223758733</v>
+        <v>0.0007922200326032387</v>
       </c>
       <c r="H19">
-        <v>0.2605964565419256</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1514202115252026</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.248764199791637</v>
       </c>
       <c r="K19">
-        <v>0.9881544697327058</v>
+        <v>0.6937486579335044</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.5970666029891234</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.553637155574393</v>
+        <v>2.724884670783354</v>
       </c>
       <c r="C20">
-        <v>0.9762605359653094</v>
+        <v>0.545921162478237</v>
       </c>
       <c r="D20">
-        <v>0.06028923471318137</v>
+        <v>0.096195541444132</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6389578444933335</v>
+        <v>9.536740461486488</v>
       </c>
       <c r="G20">
-        <v>0.1221724798066433</v>
+        <v>0.0007880189784316119</v>
       </c>
       <c r="H20">
-        <v>0.2666518475517279</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.150811250606008</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2564252005949754</v>
       </c>
       <c r="K20">
-        <v>1.027709914477299</v>
+        <v>0.7252133321849641</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.6230201580103767</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.015892592034163</v>
+        <v>3.128697858189241</v>
       </c>
       <c r="C21">
-        <v>1.10381835950858</v>
+        <v>0.632032240987229</v>
       </c>
       <c r="D21">
-        <v>0.06615726066362981</v>
+        <v>0.1113076141350717</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7114383636632766</v>
+        <v>10.69065217066264</v>
       </c>
       <c r="G21">
-        <v>0.1379440731377954</v>
+        <v>0.0007739132963345745</v>
       </c>
       <c r="H21">
-        <v>0.2892886896540716</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.151178729468139</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2830056347738577</v>
       </c>
       <c r="K21">
-        <v>1.161584130578191</v>
+        <v>0.8344364364571533</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7133722358284729</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.320783115142376</v>
+        <v>3.403606357300248</v>
       </c>
       <c r="C22">
-        <v>1.188144138405846</v>
+        <v>0.6910285177399089</v>
       </c>
       <c r="D22">
-        <v>0.07004067209680187</v>
+        <v>0.121641216339583</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7623944399992126</v>
+        <v>11.47287076709534</v>
       </c>
       <c r="G22">
-        <v>0.1491655897615161</v>
+        <v>0.0007646681896165131</v>
       </c>
       <c r="H22">
-        <v>0.3059637805245998</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.153386120685898</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.301106839673821</v>
       </c>
       <c r="K22">
-        <v>1.249930999279528</v>
+        <v>0.908902602250734</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.775172312917995</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.157774931589984</v>
+        <v>3.255760459371118</v>
       </c>
       <c r="C23">
-        <v>1.14304047407586</v>
+        <v>0.659262258566514</v>
       </c>
       <c r="D23">
-        <v>0.06796314891357724</v>
+        <v>0.1160790799083742</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.734846938527383</v>
+        <v>11.05251944958246</v>
       </c>
       <c r="G23">
-        <v>0.1430867343995104</v>
+        <v>0.0007696071979666805</v>
       </c>
       <c r="H23">
-        <v>0.2968802328471796</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1520166275441142</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2913719468539426</v>
       </c>
       <c r="K23">
-        <v>1.202692048900659</v>
+        <v>0.8688435734381414</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7419086990817902</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.546122761382378</v>
+        <v>2.718446048032547</v>
       </c>
       <c r="C24">
-        <v>0.9741898074897506</v>
+        <v>0.5445533646483511</v>
       </c>
       <c r="D24">
-        <v>0.06019404440337439</v>
+        <v>0.09595520180344863</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6378287590578537</v>
+        <v>9.518292304470009</v>
       </c>
       <c r="G24">
-        <v>0.1219288225478152</v>
+        <v>0.0007882495682021151</v>
       </c>
       <c r="H24">
-        <v>0.266311111221782</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1508360198436094</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2560015728327585</v>
       </c>
       <c r="K24">
-        <v>1.025534363350332</v>
+        <v>0.7234733423050059</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.6215839869494744</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.895697232078135</v>
+        <v>2.175968971857003</v>
       </c>
       <c r="C25">
-        <v>0.7952872830801141</v>
+        <v>0.4298841140437162</v>
       </c>
       <c r="D25">
-        <v>0.05198000317894724</v>
+        <v>0.07576759126386179</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.546425506002052</v>
+        <v>7.957877791652578</v>
       </c>
       <c r="G25">
-        <v>0.1024649581304473</v>
+        <v>0.0008084483502272539</v>
       </c>
       <c r="H25">
-        <v>0.2403313957758613</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1569547563847493</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2203514512808695</v>
       </c>
       <c r="K25">
-        <v>0.8373068799593995</v>
+        <v>0.5770413126416756</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0.5011564431283517</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.799292164447365</v>
+        <v>2.663120016643234</v>
       </c>
       <c r="C2">
-        <v>0.3509080934307462</v>
+        <v>0.8627401064873084</v>
       </c>
       <c r="D2">
-        <v>0.06180738687540099</v>
+        <v>0.0659702262182229</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.866413248826376</v>
+        <v>2.578978952821103</v>
       </c>
       <c r="G2">
-        <v>0.000823584351460977</v>
+        <v>0.0007992271995819479</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.557048663797843</v>
       </c>
       <c r="J2">
-        <v>0.1956795318333207</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4755551831848663</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1729566505030178</v>
       </c>
       <c r="M2">
-        <v>0.4183239975724291</v>
+        <v>0.4392911462026916</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.554533637305184</v>
+        <v>2.300764305304654</v>
       </c>
       <c r="C3">
-        <v>0.2998602390247527</v>
+        <v>0.7449122350572281</v>
       </c>
       <c r="D3">
-        <v>0.05274807275848303</v>
+        <v>0.06583882121244855</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.152942772744296</v>
+        <v>2.323015557331672</v>
       </c>
       <c r="G3">
-        <v>0.0008340821584744599</v>
+        <v>0.0008083720864439493</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.441321864738811</v>
       </c>
       <c r="J3">
-        <v>0.1797106566873836</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4096916539803672</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1594880803683338</v>
       </c>
       <c r="M3">
-        <v>0.364944007686276</v>
+        <v>0.3825385137051356</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.408420735077385</v>
+        <v>2.081817294441123</v>
       </c>
       <c r="C4">
-        <v>0.2694820394309545</v>
+        <v>0.6736216133496953</v>
       </c>
       <c r="D4">
-        <v>0.04733846387188123</v>
+        <v>0.0658612884571923</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.7251157361612</v>
+        <v>2.171170995103495</v>
       </c>
       <c r="G4">
-        <v>0.0008406674018464544</v>
+        <v>0.000814129128398838</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.37336772196997</v>
       </c>
       <c r="J4">
-        <v>0.1702114972914472</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3704022018316948</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1514940571583807</v>
       </c>
       <c r="M4">
-        <v>0.3332826985066717</v>
+        <v>0.3483409812783265</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.349793105781856</v>
+        <v>1.99335989582255</v>
       </c>
       <c r="C5">
-        <v>0.2573119757565792</v>
+        <v>0.6447887886320132</v>
       </c>
       <c r="D5">
-        <v>0.04516644872212083</v>
+        <v>0.06589429295993909</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.552994095549394</v>
+        <v>2.110487996338705</v>
       </c>
       <c r="G5">
-        <v>0.0008433888327934982</v>
+        <v>0.00081651283004891</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.34638057861811</v>
       </c>
       <c r="J5">
-        <v>0.1664088373710513</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3546432082419244</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1482998472299712</v>
       </c>
       <c r="M5">
-        <v>0.3206283876426781</v>
+        <v>0.3345480888697381</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.340109610693361</v>
+        <v>1.978714388869264</v>
       </c>
       <c r="C6">
-        <v>0.2553028761133191</v>
+        <v>0.6400130387816887</v>
       </c>
       <c r="D6">
-        <v>0.04480758272887186</v>
+        <v>0.06590115634089955</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.524537857639217</v>
+        <v>2.10047986881608</v>
       </c>
       <c r="G6">
-        <v>0.000843843089735913</v>
+        <v>0.0008169109701709217</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.341939863075609</v>
       </c>
       <c r="J6">
-        <v>0.1657813005037028</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3520406183138292</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.147773117675257</v>
       </c>
       <c r="M6">
-        <v>0.3185412429714418</v>
+        <v>0.332265860249457</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.407626526485387</v>
+        <v>2.080621385589609</v>
       </c>
       <c r="C7">
-        <v>0.2693171038842763</v>
+        <v>0.6732319371932363</v>
       </c>
       <c r="D7">
-        <v>0.04730904744223352</v>
+        <v>0.06586163962350966</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.722785893825915</v>
+        <v>2.170347944122668</v>
       </c>
       <c r="G7">
-        <v>0.0008407039471317918</v>
+        <v>0.0008141611209447749</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.373001005567502</v>
       </c>
       <c r="J7">
-        <v>0.1701599473632314</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3701886980501499</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1514507296100831</v>
       </c>
       <c r="M7">
-        <v>0.3331110744029999</v>
+        <v>0.3481544124899258</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.713948813461712</v>
+        <v>2.537365833154695</v>
       </c>
       <c r="C8">
-        <v>0.3330851100703853</v>
+        <v>0.8218641810170197</v>
       </c>
       <c r="D8">
-        <v>0.05864821303773482</v>
+        <v>0.06590218794424274</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.618056615608936</v>
+        <v>2.489529291716025</v>
       </c>
       <c r="G8">
-        <v>0.000827176805769477</v>
+        <v>0.0008023520970954293</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.516454595200699</v>
       </c>
       <c r="J8">
-        <v>0.1901045596669491</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4525825921824094</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1682517380914845</v>
       </c>
       <c r="M8">
-        <v>0.3996668104949137</v>
+        <v>0.4195753854171755</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.354623166765066</v>
+        <v>3.467471385294289</v>
       </c>
       <c r="C9">
-        <v>0.4675245083877542</v>
+        <v>1.124094202131573</v>
       </c>
       <c r="D9">
-        <v>0.08240333247881182</v>
+        <v>0.06690598761714028</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.473153455481963</v>
+        <v>3.164803596094544</v>
       </c>
       <c r="G9">
-        <v>0.0008016145640974797</v>
+        <v>0.0007802243086680216</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.826175205500391</v>
       </c>
       <c r="J9">
-        <v>0.2320808115163331</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.625229399902139</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2036825696497004</v>
       </c>
       <c r="M9">
-        <v>0.5406838524672608</v>
+        <v>0.5658036260824204</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.860868631813844</v>
+        <v>4.181858421944128</v>
       </c>
       <c r="C10">
-        <v>0.5748470286286533</v>
+        <v>1.356499506095702</v>
       </c>
       <c r="D10">
-        <v>0.1012759344773571</v>
+        <v>0.06837560766097539</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.925995584719658</v>
+        <v>3.702322784867221</v>
       </c>
       <c r="G10">
-        <v>0.0007831925561725122</v>
+        <v>0.0007644417097888525</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.077017507553506</v>
       </c>
       <c r="J10">
-        <v>0.2653739257089001</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7619731014297102</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2316920224619565</v>
       </c>
       <c r="M10">
-        <v>0.6533859116698579</v>
+        <v>0.6786189154385767</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.101927373245303</v>
+        <v>4.516228419987726</v>
       </c>
       <c r="C11">
-        <v>0.6263035052519967</v>
+        <v>1.465480006426731</v>
       </c>
       <c r="D11">
-        <v>0.110303347619805</v>
+        <v>0.06924811655343177</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.61433865147086</v>
+        <v>3.958800607643468</v>
       </c>
       <c r="G11">
-        <v>0.0007748281185232884</v>
+        <v>0.0007573250962692306</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.197750283425819</v>
       </c>
       <c r="J11">
-        <v>0.281243031676226</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8271897061215157</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.244983732195692</v>
       </c>
       <c r="M11">
-        <v>0.7073661881710365</v>
+        <v>0.7315331813097146</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.195065519498144</v>
+        <v>4.644453730020643</v>
       </c>
       <c r="C12">
-        <v>0.646246972828493</v>
+        <v>1.507315577708482</v>
       </c>
       <c r="D12">
-        <v>0.1137988549867543</v>
+        <v>0.06961232961982944</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.87973430543599</v>
+        <v>4.057930749160107</v>
       </c>
       <c r="G12">
-        <v>0.000771656816725488</v>
+        <v>0.0007546354152652403</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.244573605420115</v>
       </c>
       <c r="J12">
-        <v>0.2873754955344054</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8524056897885401</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2501076196387828</v>
       </c>
       <c r="M12">
-        <v>0.7282714465332063</v>
+        <v>0.7518408464901469</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.174918606678716</v>
+        <v>4.61676217178757</v>
       </c>
       <c r="C13">
-        <v>0.6419300009069673</v>
+        <v>1.498278587599771</v>
       </c>
       <c r="D13">
-        <v>0.1130423698953678</v>
+        <v>0.069532306826666</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.82235196399603</v>
+        <v>4.036486968734891</v>
       </c>
       <c r="G13">
-        <v>0.0007723400947996506</v>
+        <v>0.0007552145206159933</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.234437584354353</v>
       </c>
       <c r="J13">
-        <v>0.2860489419269925</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8469503026253165</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2489998689136996</v>
       </c>
       <c r="M13">
-        <v>0.7237471590878926</v>
+        <v>0.7474544946991344</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.109550788579099</v>
+        <v>4.526743791352374</v>
       </c>
       <c r="C14">
-        <v>0.6279345812532995</v>
+        <v>1.468909861499128</v>
       </c>
       <c r="D14">
-        <v>0.1105892960863883</v>
+        <v>0.06927737467267292</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.63607300447637</v>
+        <v>3.966914068289412</v>
       </c>
       <c r="G14">
-        <v>0.0007745673298771294</v>
+        <v>0.0007571037336664787</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.20157938150642</v>
       </c>
       <c r="J14">
-        <v>0.281744963444126</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8292532677828461</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2454033901065742</v>
       </c>
       <c r="M14">
-        <v>0.709076302676138</v>
+        <v>0.7331982344636572</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.069762635576296</v>
+        <v>4.471822412401366</v>
       </c>
       <c r="C15">
-        <v>0.6194242274767419</v>
+        <v>1.450997693654813</v>
       </c>
       <c r="D15">
-        <v>0.1090971868829484</v>
+        <v>0.06912577006615805</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.52261415345214</v>
+        <v>3.924569369935767</v>
       </c>
       <c r="G15">
-        <v>0.0007759308712834862</v>
+        <v>0.0007582614887365164</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.181601503570093</v>
       </c>
       <c r="J15">
-        <v>0.2791253158912212</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8184838691094285</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2432126107110832</v>
       </c>
       <c r="M15">
-        <v>0.7001528462142232</v>
+        <v>0.7245023656245593</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.845356492913254</v>
+        <v>4.160216599970909</v>
       </c>
       <c r="C16">
-        <v>0.5715436891139802</v>
+        <v>1.34945102097555</v>
       </c>
       <c r="D16">
-        <v>0.1006959664511555</v>
+        <v>0.06832305883771994</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.881627368308415</v>
+        <v>3.685825663660637</v>
       </c>
       <c r="G16">
-        <v>0.0007837390083087084</v>
+        <v>0.0007649077492555278</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.069273118735296</v>
       </c>
       <c r="J16">
-        <v>0.2643529679738492</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.757778717952803</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2308353955669844</v>
       </c>
       <c r="M16">
-        <v>0.649918786373668</v>
+        <v>0.6751962899146662</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.71064962507478</v>
+        <v>3.971632864955666</v>
       </c>
       <c r="C17">
-        <v>0.5428973371567736</v>
+        <v>1.288055451609466</v>
       </c>
       <c r="D17">
-        <v>0.09566420335453074</v>
+        <v>0.06788583741911225</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.495951581935913</v>
+        <v>3.542619049835821</v>
       </c>
       <c r="G17">
-        <v>0.0007885290426684118</v>
+        <v>0.0007689985840688682</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.002161189667774</v>
       </c>
       <c r="J17">
-        <v>0.2554886197531658</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7213664805287081</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.223390975289675</v>
       </c>
       <c r="M17">
-        <v>0.6198451483525886</v>
+        <v>0.6453842416655888</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.634161897612159</v>
+        <v>3.864031137436712</v>
       </c>
       <c r="C18">
-        <v>0.5266632320181373</v>
+        <v>1.253042315666391</v>
       </c>
       <c r="D18">
-        <v>0.09281075938714167</v>
+        <v>0.06765325177941151</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.276649335543539</v>
+        <v>3.46135641215659</v>
       </c>
       <c r="G18">
-        <v>0.000791286056012197</v>
+        <v>0.0007713577097559662</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.964173324758576</v>
       </c>
       <c r="J18">
-        <v>0.2504569053161276</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7007005460309799</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2191601438136672</v>
       </c>
       <c r="M18">
-        <v>0.6027976828333408</v>
+        <v>0.6283844086429582</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.608426368126288</v>
+        <v>3.827740675359564</v>
       </c>
       <c r="C19">
-        <v>0.5212061117063058</v>
+        <v>1.241236225363821</v>
       </c>
       <c r="D19">
-        <v>0.09185124826921509</v>
+        <v>0.06757762171634596</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.202809641910164</v>
+        <v>3.434024121577806</v>
       </c>
       <c r="G19">
-        <v>0.0007922200326032387</v>
+        <v>0.0007721576395812407</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.951412308779993</v>
       </c>
       <c r="J19">
-        <v>0.248764199791637</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6937486579335044</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2177360906092076</v>
       </c>
       <c r="M19">
-        <v>0.5970666029891234</v>
+        <v>0.6226526953042253</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.724884670783354</v>
+        <v>3.991616492415517</v>
       </c>
       <c r="C20">
-        <v>0.545921162478237</v>
+        <v>1.29455940234584</v>
       </c>
       <c r="D20">
-        <v>0.096195541444132</v>
+        <v>0.06793039483439856</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.536740461486488</v>
+        <v>3.557747213855151</v>
       </c>
       <c r="G20">
-        <v>0.0007880189784316119</v>
+        <v>0.0007685624935845555</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.009240878878813</v>
       </c>
       <c r="J20">
-        <v>0.2564252005949754</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7252133321849641</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.224178089527129</v>
       </c>
       <c r="M20">
-        <v>0.6230201580103767</v>
+        <v>0.6485422650010761</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.128697858189241</v>
+        <v>4.553138537807001</v>
       </c>
       <c r="C21">
-        <v>0.632032240987229</v>
+        <v>1.47751991859991</v>
       </c>
       <c r="D21">
-        <v>0.1113076141350717</v>
+        <v>0.06935129744164925</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.69065217066264</v>
+        <v>3.987292324345532</v>
       </c>
       <c r="G21">
-        <v>0.0007739132963345745</v>
+        <v>0.0007565487174409642</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.211199335709935</v>
       </c>
       <c r="J21">
-        <v>0.2830056347738577</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8344364364571533</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2464572045727493</v>
       </c>
       <c r="M21">
-        <v>0.7133722358284729</v>
+        <v>0.7373779549886095</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.403606357300248</v>
+        <v>4.929638045965419</v>
       </c>
       <c r="C22">
-        <v>0.6910285177399089</v>
+        <v>1.60045751786754</v>
       </c>
       <c r="D22">
-        <v>0.121641216339583</v>
+        <v>0.07047965650927779</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.47287076709534</v>
+        <v>4.279892313847483</v>
       </c>
       <c r="G22">
-        <v>0.0007646681896165131</v>
+        <v>0.0007487252846263281</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.349715821901711</v>
       </c>
       <c r="J22">
-        <v>0.301106839673821</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.908902602250734</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2615525417899107</v>
       </c>
       <c r="M22">
-        <v>0.775172312917995</v>
+        <v>0.7970355498939128</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.255760459371118</v>
+        <v>4.727727894195766</v>
       </c>
       <c r="C23">
-        <v>0.659262258566514</v>
+        <v>1.534499076132136</v>
       </c>
       <c r="D23">
-        <v>0.1160790799083742</v>
+        <v>0.06985747901516959</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.05251944958246</v>
+        <v>4.122533658272772</v>
       </c>
       <c r="G23">
-        <v>0.0007696071979666805</v>
+        <v>0.0007528996270255275</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.275133675128515</v>
       </c>
       <c r="J23">
-        <v>0.2913719468539426</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8688435734381414</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2534427287851457</v>
       </c>
       <c r="M23">
-        <v>0.7419086990817902</v>
+        <v>0.7650337775775924</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.718446048032547</v>
+        <v>3.982579366732523</v>
       </c>
       <c r="C24">
-        <v>0.5445533646483511</v>
+        <v>1.291618088873577</v>
       </c>
       <c r="D24">
-        <v>0.09595520180344863</v>
+        <v>0.06791019226466943</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.518292304470009</v>
+        <v>3.550904463192239</v>
       </c>
       <c r="G24">
-        <v>0.0007882495682021151</v>
+        <v>0.0007687596273102266</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.006038307184497</v>
       </c>
       <c r="J24">
-        <v>0.2560015728327585</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7234733423050059</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2238220832026343</v>
       </c>
       <c r="M24">
-        <v>0.6215839869494744</v>
+        <v>0.6471140911233846</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.175968971857003</v>
+        <v>3.211205080506602</v>
       </c>
       <c r="C25">
-        <v>0.4298841140437162</v>
+        <v>1.040818547258738</v>
       </c>
       <c r="D25">
-        <v>0.07576759126386179</v>
+        <v>0.06651943757518808</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.957877791652578</v>
+        <v>2.975756036241108</v>
       </c>
       <c r="G25">
-        <v>0.0008084483502272539</v>
+        <v>0.0007861149419806826</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.738773481865223</v>
       </c>
       <c r="J25">
-        <v>0.2203514512808695</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5770413126416756</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1937869434778747</v>
       </c>
       <c r="M25">
-        <v>0.5011564431283517</v>
+        <v>0.5254290300375786</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.663120016643234</v>
+        <v>1.400352648228136</v>
       </c>
       <c r="C2">
-        <v>0.8627401064873084</v>
+        <v>0.2522079696473725</v>
       </c>
       <c r="D2">
-        <v>0.0659702262182229</v>
+        <v>0.09410523387798975</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.578978952821103</v>
+        <v>2.175727196881596</v>
       </c>
       <c r="G2">
-        <v>0.0007992271995819479</v>
+        <v>0.002511508971311874</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.557048663797843</v>
+        <v>1.649109537196878</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1729566505030178</v>
+        <v>0.247266623261801</v>
       </c>
       <c r="M2">
-        <v>0.4392911462026916</v>
+        <v>0.3093111431223861</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.300764305304654</v>
+        <v>1.313779732063551</v>
       </c>
       <c r="C3">
-        <v>0.7449122350572281</v>
+        <v>0.2192766030679252</v>
       </c>
       <c r="D3">
-        <v>0.06583882121244855</v>
+        <v>0.09418093707741093</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.323015557331672</v>
+        <v>2.120018071462468</v>
       </c>
       <c r="G3">
-        <v>0.0008083720864439493</v>
+        <v>0.00251709033857021</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.441321864738811</v>
+        <v>1.62632282151101</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1594880803683338</v>
+        <v>0.2451822694918135</v>
       </c>
       <c r="M3">
-        <v>0.3825385137051356</v>
+        <v>0.2965791635638411</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.081817294441123</v>
+        <v>1.261534399895652</v>
       </c>
       <c r="C4">
-        <v>0.6736216133496953</v>
+        <v>0.1990517184434566</v>
       </c>
       <c r="D4">
-        <v>0.0658612884571923</v>
+        <v>0.09425349622320667</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.171170995103495</v>
+        <v>2.087038882756602</v>
       </c>
       <c r="G4">
-        <v>0.000814129128398838</v>
+        <v>0.002520696324789328</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.37336772196997</v>
+        <v>1.613122399793212</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1514940571583807</v>
+        <v>0.244015803945409</v>
       </c>
       <c r="M4">
-        <v>0.3483409812783265</v>
+        <v>0.2889608564446817</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.99335989582255</v>
+        <v>1.240472312984366</v>
       </c>
       <c r="C5">
-        <v>0.6447887886320132</v>
+        <v>0.1908079871277266</v>
       </c>
       <c r="D5">
-        <v>0.06589429295993909</v>
+        <v>0.09428956836805469</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.110487996338705</v>
+        <v>2.073905552361438</v>
       </c>
       <c r="G5">
-        <v>0.00081651283004891</v>
+        <v>0.002522210963733091</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.34638057861811</v>
+        <v>1.607940564846885</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1482998472299712</v>
+        <v>0.2435689273792647</v>
       </c>
       <c r="M5">
-        <v>0.3345480888697381</v>
+        <v>0.2859063091627547</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.978714388869264</v>
+        <v>1.236988738825119</v>
       </c>
       <c r="C6">
-        <v>0.6400130387816887</v>
+        <v>0.1894389853224254</v>
       </c>
       <c r="D6">
-        <v>0.06590115634089955</v>
+        <v>0.09429594936168328</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.10047986881608</v>
+        <v>2.071743180806152</v>
       </c>
       <c r="G6">
-        <v>0.0008169109701709217</v>
+        <v>0.00252246520149353</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.341939863075609</v>
+        <v>1.607092009778214</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.147773117675257</v>
+        <v>0.2434964423440675</v>
       </c>
       <c r="M6">
-        <v>0.332265860249457</v>
+        <v>0.2854021191604019</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.080621385589609</v>
+        <v>1.261249425732501</v>
       </c>
       <c r="C7">
-        <v>0.6732319371932363</v>
+        <v>0.1989405493055472</v>
       </c>
       <c r="D7">
-        <v>0.06586163962350966</v>
+        <v>0.09425395644245071</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.170347944122668</v>
+        <v>2.086860526506285</v>
       </c>
       <c r="G7">
-        <v>0.0008141611209447749</v>
+        <v>0.002520716568844522</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.373001005567502</v>
+        <v>1.613051718163078</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1514507296100831</v>
+        <v>0.2440096619874197</v>
       </c>
       <c r="M7">
-        <v>0.3481544124899258</v>
+        <v>0.2889194595492839</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.537365833154695</v>
+        <v>1.370312800604268</v>
       </c>
       <c r="C8">
-        <v>0.8218641810170197</v>
+        <v>0.2408538186309102</v>
       </c>
       <c r="D8">
-        <v>0.06590218794424274</v>
+        <v>0.09412589170592867</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.489529291716025</v>
+        <v>2.156262649042844</v>
       </c>
       <c r="G8">
-        <v>0.0008023520970954293</v>
+        <v>0.002513396370092913</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.516454595200699</v>
+        <v>1.641087719090066</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1682517380914845</v>
+        <v>0.2465243945721411</v>
       </c>
       <c r="M8">
-        <v>0.4195753854171755</v>
+        <v>0.3048797436943644</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.467471385294289</v>
+        <v>1.591459354116864</v>
       </c>
       <c r="C9">
-        <v>1.124094202131573</v>
+        <v>0.3230423801514348</v>
       </c>
       <c r="D9">
-        <v>0.06690598761714028</v>
+        <v>0.09408410990698712</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.164803596094544</v>
+        <v>2.302210485848633</v>
       </c>
       <c r="G9">
-        <v>0.0007802243086680216</v>
+        <v>0.002500454565711556</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.826175205500391</v>
+        <v>1.702406926146352</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2036825696497004</v>
+        <v>0.2523570612463075</v>
       </c>
       <c r="M9">
-        <v>0.5658036260824204</v>
+        <v>0.3377655279360567</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.181858421944128</v>
+        <v>1.758456058550109</v>
       </c>
       <c r="C10">
-        <v>1.356499506095702</v>
+        <v>0.3834796468014474</v>
       </c>
       <c r="D10">
-        <v>0.06837560766097539</v>
+        <v>0.09418445972587364</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.702322784867221</v>
+        <v>2.41562175383271</v>
       </c>
       <c r="G10">
-        <v>0.0007644417097888525</v>
+        <v>0.002491797524859339</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.077017507553506</v>
+        <v>1.751422018503149</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2316920224619565</v>
+        <v>0.2571954013645978</v>
       </c>
       <c r="M10">
-        <v>0.6786189154385767</v>
+        <v>0.3629081114560577</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.516228419987726</v>
+        <v>1.835429254279802</v>
       </c>
       <c r="C11">
-        <v>1.465480006426731</v>
+        <v>0.4109981571328944</v>
       </c>
       <c r="D11">
-        <v>0.06924811655343177</v>
+        <v>0.09425931019356426</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.958800607643468</v>
+        <v>2.468597651429036</v>
       </c>
       <c r="G11">
-        <v>0.0007573250962692306</v>
+        <v>0.002488041895268189</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.197750283425819</v>
+        <v>1.774602669743146</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.244983732195692</v>
+        <v>0.2595174422384474</v>
       </c>
       <c r="M11">
-        <v>0.7315331813097146</v>
+        <v>0.3745624383629149</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.644453730020643</v>
+        <v>1.864722921158773</v>
       </c>
       <c r="C12">
-        <v>1.507315577708482</v>
+        <v>0.4214232432694303</v>
       </c>
       <c r="D12">
-        <v>0.06961232961982944</v>
+        <v>0.09429191352460009</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.057930749160107</v>
+        <v>2.48886031353274</v>
       </c>
       <c r="G12">
-        <v>0.0007546354152652403</v>
+        <v>0.002486645813290167</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.244573605420115</v>
+        <v>1.783509271650487</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2501076196387828</v>
+        <v>0.2604142026841885</v>
       </c>
       <c r="M12">
-        <v>0.7518408464901469</v>
+        <v>0.3790070164975248</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.61676217178757</v>
+        <v>1.858407514518717</v>
       </c>
       <c r="C13">
-        <v>1.498278587599771</v>
+        <v>0.4191778050329162</v>
       </c>
       <c r="D13">
-        <v>0.069532306826666</v>
+        <v>0.09428470142916012</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.036486968734891</v>
+        <v>2.484487365842796</v>
       </c>
       <c r="G13">
-        <v>0.0007552145206159933</v>
+        <v>0.002486945326433872</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.234437584354353</v>
+        <v>1.781585331487818</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2489998689136996</v>
+        <v>0.2602202922534929</v>
       </c>
       <c r="M13">
-        <v>0.7474544946991344</v>
+        <v>0.3780484007665166</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.526743791352374</v>
+        <v>1.837836338239697</v>
       </c>
       <c r="C14">
-        <v>1.468909861499128</v>
+        <v>0.4118557420333673</v>
       </c>
       <c r="D14">
-        <v>0.06927737467267292</v>
+        <v>0.09426190678551905</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.966914068289412</v>
+        <v>2.470260611856787</v>
       </c>
       <c r="G14">
-        <v>0.0007571037336664787</v>
+        <v>0.002487926516656191</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.20157938150642</v>
+        <v>1.775332835108543</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2454033901065742</v>
+        <v>0.2595908691856152</v>
       </c>
       <c r="M14">
-        <v>0.7331982344636572</v>
+        <v>0.374927467511263</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.471822412401366</v>
+        <v>1.825254888862389</v>
       </c>
       <c r="C15">
-        <v>1.450997693654813</v>
+        <v>0.4073713666814456</v>
       </c>
       <c r="D15">
-        <v>0.06912577006615805</v>
+        <v>0.09424850085460434</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.924569369935767</v>
+        <v>2.461572681612097</v>
       </c>
       <c r="G15">
-        <v>0.0007582614887365164</v>
+        <v>0.002488530917774904</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.181601503570093</v>
+        <v>1.771519793425227</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2432126107110832</v>
+        <v>0.2592076038042848</v>
       </c>
       <c r="M15">
-        <v>0.7245023656245593</v>
+        <v>0.3730198915986023</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.160216599970909</v>
+        <v>1.753445997150379</v>
       </c>
       <c r="C16">
-        <v>1.34945102097555</v>
+        <v>0.381681823299175</v>
       </c>
       <c r="D16">
-        <v>0.06832305883771994</v>
+        <v>0.09418016079111169</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.685825663660637</v>
+        <v>2.412187748793542</v>
       </c>
       <c r="G16">
-        <v>0.0007649077492555278</v>
+        <v>0.002492046623909466</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.069273118735296</v>
+        <v>1.749925018111114</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2308353955669844</v>
+        <v>0.2570460904050123</v>
       </c>
       <c r="M16">
-        <v>0.6751962899146662</v>
+        <v>0.3621508503406758</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.971632864955666</v>
+        <v>1.70965180510791</v>
       </c>
       <c r="C17">
-        <v>1.288055451609466</v>
+        <v>0.3659291538778575</v>
       </c>
       <c r="D17">
-        <v>0.06788583741911225</v>
+        <v>0.09414575799872438</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.542619049835821</v>
+        <v>2.382248250240167</v>
       </c>
       <c r="G17">
-        <v>0.0007689985840688682</v>
+        <v>0.002494250031702801</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.002161189667774</v>
+        <v>1.736904695258247</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.223390975289675</v>
+        <v>0.2557511096630805</v>
       </c>
       <c r="M17">
-        <v>0.6453842416655888</v>
+        <v>0.3555386922795591</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.864031137436712</v>
+        <v>1.68455712986713</v>
       </c>
       <c r="C18">
-        <v>1.253042315666391</v>
+        <v>0.356870968014789</v>
       </c>
       <c r="D18">
-        <v>0.06765325177941151</v>
+        <v>0.09412871533110234</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.46135641215659</v>
+        <v>2.365157996587044</v>
       </c>
       <c r="G18">
-        <v>0.0007713577097559662</v>
+        <v>0.002495534560403062</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.964173324758576</v>
+        <v>1.729498809771016</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2191601438136672</v>
+        <v>0.2550176624637857</v>
       </c>
       <c r="M18">
-        <v>0.6283844086429582</v>
+        <v>0.3517559540364488</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.827740675359564</v>
+        <v>1.676076719789762</v>
       </c>
       <c r="C19">
-        <v>1.241236225363821</v>
+        <v>0.3538043988961022</v>
       </c>
       <c r="D19">
-        <v>0.06757762171634596</v>
+        <v>0.09412341459392337</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.434024121577806</v>
+        <v>2.359393801268112</v>
       </c>
       <c r="G19">
-        <v>0.0007721576395812407</v>
+        <v>0.002495972436260763</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.951412308779993</v>
+        <v>1.727005522626214</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2177360906092076</v>
+        <v>0.2547712849550265</v>
       </c>
       <c r="M19">
-        <v>0.6226526953042253</v>
+        <v>0.350478682971314</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.991616492415517</v>
+        <v>1.714303975328448</v>
       </c>
       <c r="C20">
-        <v>1.29455940234584</v>
+        <v>0.3676058053295606</v>
       </c>
       <c r="D20">
-        <v>0.06793039483439856</v>
+        <v>0.09414913571469441</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.557747213855151</v>
+        <v>2.385421870739179</v>
       </c>
       <c r="G20">
-        <v>0.0007685624935845555</v>
+        <v>0.00249401369737936</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.009240878878813</v>
+        <v>1.73828212325607</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.224178089527129</v>
+        <v>0.2558877832690456</v>
       </c>
       <c r="M20">
-        <v>0.6485422650010761</v>
+        <v>0.3562404553424443</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.553138537807001</v>
+        <v>1.843874632017958</v>
       </c>
       <c r="C21">
-        <v>1.47751991859991</v>
+        <v>0.4140062830360307</v>
       </c>
       <c r="D21">
-        <v>0.06935129744164925</v>
+        <v>0.09426848605414051</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.987292324345532</v>
+        <v>2.474433854492219</v>
       </c>
       <c r="G21">
-        <v>0.0007565487174409642</v>
+        <v>0.002487637610428944</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.211199335709935</v>
+        <v>1.777165842441121</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2464572045727493</v>
+        <v>0.2597752719255766</v>
       </c>
       <c r="M21">
-        <v>0.7373779549886095</v>
+        <v>0.3758433094906337</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.929638045965419</v>
+        <v>1.929405638982018</v>
       </c>
       <c r="C22">
-        <v>1.60045751786754</v>
+        <v>0.4443578364426344</v>
       </c>
       <c r="D22">
-        <v>0.07047965650927779</v>
+        <v>0.09437134176632611</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.279892313847483</v>
+        <v>2.533786099696869</v>
       </c>
       <c r="G22">
-        <v>0.0007487252846263281</v>
+        <v>0.002483622492742615</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.349715821901711</v>
+        <v>1.803328866411277</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2615525417899107</v>
+        <v>0.262417728153352</v>
       </c>
       <c r="M22">
-        <v>0.7970355498939128</v>
+        <v>0.3888376442214181</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.727727894195766</v>
+        <v>1.883678099376482</v>
       </c>
       <c r="C23">
-        <v>1.534499076132136</v>
+        <v>0.4281559840623004</v>
       </c>
       <c r="D23">
-        <v>0.06985747901516959</v>
+        <v>0.094314151705575</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.122533658272772</v>
+        <v>2.502000009554763</v>
       </c>
       <c r="G23">
-        <v>0.0007528996270255275</v>
+        <v>0.002485751575664559</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.275133675128515</v>
+        <v>1.789296001610637</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2534427287851457</v>
+        <v>0.2609980729910433</v>
       </c>
       <c r="M23">
-        <v>0.7650337775775924</v>
+        <v>0.3818855493577331</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.982579366732523</v>
+        <v>1.712200470130199</v>
       </c>
       <c r="C24">
-        <v>1.291618088873577</v>
+        <v>0.3668477967688659</v>
       </c>
       <c r="D24">
-        <v>0.06791019226466943</v>
+        <v>0.09414760013189749</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.550904463192239</v>
+        <v>2.383986695985556</v>
       </c>
       <c r="G24">
-        <v>0.0007687596273102266</v>
+        <v>0.00249412048883511</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.006038307184497</v>
+        <v>1.737659140016518</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2238220832026343</v>
+        <v>0.2558259587032126</v>
       </c>
       <c r="M24">
-        <v>0.6471140911233846</v>
+        <v>0.3559231300908721</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.211205080506602</v>
+        <v>1.530845922881099</v>
       </c>
       <c r="C25">
-        <v>1.040818547258738</v>
+        <v>0.300802875935176</v>
       </c>
       <c r="D25">
-        <v>0.06651943757518808</v>
+        <v>0.09407264808275784</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.975756036241108</v>
+        <v>2.261654829178156</v>
       </c>
       <c r="G25">
-        <v>0.0007861149419806826</v>
+        <v>0.002503805437852961</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.738773481865223</v>
+        <v>1.685129508552123</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1937869434778747</v>
+        <v>0.2506823115701451</v>
       </c>
       <c r="M25">
-        <v>0.5254290300375786</v>
+        <v>0.3286977073501376</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.400352648228136</v>
+        <v>2.663120016643347</v>
       </c>
       <c r="C2">
-        <v>0.2522079696473725</v>
+        <v>0.8627401064875357</v>
       </c>
       <c r="D2">
-        <v>0.09410523387798975</v>
+        <v>0.06597022621822646</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.175727196881596</v>
+        <v>2.57897895282106</v>
       </c>
       <c r="G2">
-        <v>0.002511508971311874</v>
+        <v>0.0007992271996433699</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.649109537196878</v>
+        <v>1.557048663797829</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.247266623261801</v>
+        <v>0.1729566505030391</v>
       </c>
       <c r="M2">
-        <v>0.3093111431223861</v>
+        <v>0.4392911462026774</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.313779732063551</v>
+        <v>2.300764305304654</v>
       </c>
       <c r="C3">
-        <v>0.2192766030679252</v>
+        <v>0.7449122350574555</v>
       </c>
       <c r="D3">
-        <v>0.09418093707741093</v>
+        <v>0.06583882121256934</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.120018071462468</v>
+        <v>2.323015557331672</v>
       </c>
       <c r="G3">
-        <v>0.00251709033857021</v>
+        <v>0.0008083720863878964</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.62632282151101</v>
+        <v>1.441321864738782</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2451822694918135</v>
+        <v>0.1594880803681704</v>
       </c>
       <c r="M3">
-        <v>0.2965791635638411</v>
+        <v>0.3825385137051143</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.261534399895652</v>
+        <v>2.081817294440953</v>
       </c>
       <c r="C4">
-        <v>0.1990517184434566</v>
+        <v>0.6736216133496384</v>
       </c>
       <c r="D4">
-        <v>0.09425349622320667</v>
+        <v>0.06586128845710348</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.087038882756602</v>
+        <v>2.171170995103495</v>
       </c>
       <c r="G4">
-        <v>0.002520696324789328</v>
+        <v>0.0008141291284547385</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.613122399793212</v>
+        <v>1.373367721969956</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.244015803945409</v>
+        <v>0.1514940571584447</v>
       </c>
       <c r="M4">
-        <v>0.2889608564446817</v>
+        <v>0.3483409812783194</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.240472312984366</v>
+        <v>1.993359895822437</v>
       </c>
       <c r="C5">
-        <v>0.1908079871277266</v>
+        <v>0.6447887886323258</v>
       </c>
       <c r="D5">
-        <v>0.09428956836805469</v>
+        <v>0.06589429296025173</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.073905552361438</v>
+        <v>2.110487996338705</v>
       </c>
       <c r="G5">
-        <v>0.002522210963733091</v>
+        <v>0.0008165128300458368</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.607940564846885</v>
+        <v>1.346380578618124</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2435689273792647</v>
+        <v>0.1482998472300423</v>
       </c>
       <c r="M5">
-        <v>0.2859063091627547</v>
+        <v>0.3345480888697381</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.236988738825119</v>
+        <v>1.978714388869435</v>
       </c>
       <c r="C6">
-        <v>0.1894389853224254</v>
+        <v>0.6400130387818592</v>
       </c>
       <c r="D6">
-        <v>0.09429594936168328</v>
+        <v>0.06590115634111626</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.071743180806152</v>
+        <v>2.100479868816066</v>
       </c>
       <c r="G6">
-        <v>0.00252246520149353</v>
+        <v>0.0008169109702225175</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.607092009778214</v>
+        <v>1.341939863075623</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2434964423440675</v>
+        <v>0.1477731176752357</v>
       </c>
       <c r="M6">
-        <v>0.2854021191604019</v>
+        <v>0.3322658602494641</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.261249425732501</v>
+        <v>2.080621385589609</v>
       </c>
       <c r="C7">
-        <v>0.1989405493055472</v>
+        <v>0.6732319371930089</v>
       </c>
       <c r="D7">
-        <v>0.09425395644245071</v>
+        <v>0.06586163962348834</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.086860526506285</v>
+        <v>2.170347944122682</v>
       </c>
       <c r="G7">
-        <v>0.002520716568844522</v>
+        <v>0.0008141611209411349</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.613051718163078</v>
+        <v>1.373001005567502</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2440096619874197</v>
+        <v>0.1514507296100618</v>
       </c>
       <c r="M7">
-        <v>0.2889194595492839</v>
+        <v>0.3481544124899472</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.370312800604268</v>
+        <v>2.537365833154581</v>
       </c>
       <c r="C8">
-        <v>0.2408538186309102</v>
+        <v>0.8218641810174461</v>
       </c>
       <c r="D8">
-        <v>0.09412589170592867</v>
+        <v>0.06590218794420011</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.156262649042844</v>
+        <v>2.489529291716039</v>
       </c>
       <c r="G8">
-        <v>0.002513396370092913</v>
+        <v>0.000802352097203848</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.641087719090066</v>
+        <v>1.516454595200713</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2465243945721411</v>
+        <v>0.1682517380914987</v>
       </c>
       <c r="M8">
-        <v>0.3048797436943644</v>
+        <v>0.4195753854171826</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.591459354116864</v>
+        <v>3.467471385294289</v>
       </c>
       <c r="C9">
-        <v>0.3230423801514348</v>
+        <v>1.124094202131545</v>
       </c>
       <c r="D9">
-        <v>0.09408410990698712</v>
+        <v>0.06690598761724686</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.302210485848633</v>
+        <v>3.164803596094515</v>
       </c>
       <c r="G9">
-        <v>0.002500454565711556</v>
+        <v>0.000780224308657861</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.702406926146352</v>
+        <v>1.826175205500391</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2523570612463075</v>
+        <v>0.2036825696497928</v>
       </c>
       <c r="M9">
-        <v>0.3377655279360567</v>
+        <v>0.5658036260823991</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.758456058550109</v>
+        <v>4.181858421944071</v>
       </c>
       <c r="C10">
-        <v>0.3834796468014474</v>
+        <v>1.356499506095531</v>
       </c>
       <c r="D10">
-        <v>0.09418445972587364</v>
+        <v>0.06837560766074091</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.41562175383271</v>
+        <v>3.702322784867278</v>
       </c>
       <c r="G10">
-        <v>0.002491797524859339</v>
+        <v>0.0007644417097861026</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.751422018503149</v>
+        <v>2.077017507553535</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2571954013645978</v>
+        <v>0.2316920224619849</v>
       </c>
       <c r="M10">
-        <v>0.3629081114560577</v>
+        <v>0.6786189154385696</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.835429254279802</v>
+        <v>4.516228419987783</v>
       </c>
       <c r="C11">
-        <v>0.4109981571328944</v>
+        <v>1.465480006426787</v>
       </c>
       <c r="D11">
-        <v>0.09425931019356426</v>
+        <v>0.06924811655377283</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.468597651429036</v>
+        <v>3.958800607643497</v>
       </c>
       <c r="G11">
-        <v>0.002488041895268189</v>
+        <v>0.0007573250961344696</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.774602669743146</v>
+        <v>2.197750283425862</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2595174422384474</v>
+        <v>0.244983732195621</v>
       </c>
       <c r="M11">
-        <v>0.3745624383629149</v>
+        <v>0.7315331813097075</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.864722921158773</v>
+        <v>4.6444537300207</v>
       </c>
       <c r="C12">
-        <v>0.4214232432694303</v>
+        <v>1.507315577708425</v>
       </c>
       <c r="D12">
-        <v>0.09429191352460009</v>
+        <v>0.06961232961980812</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.48886031353274</v>
+        <v>4.057930749160079</v>
       </c>
       <c r="G12">
-        <v>0.002486645813290167</v>
+        <v>0.0007546354152612435</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.783509271650487</v>
+        <v>2.244573605420129</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2604142026841885</v>
+        <v>0.250107619638726</v>
       </c>
       <c r="M12">
-        <v>0.3790070164975248</v>
+        <v>0.7518408464901469</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.858407514518717</v>
+        <v>4.616762171787741</v>
       </c>
       <c r="C13">
-        <v>0.4191778050329162</v>
+        <v>1.498278587599884</v>
       </c>
       <c r="D13">
-        <v>0.09428470142916012</v>
+        <v>0.06953230682659495</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.484487365842796</v>
+        <v>4.03648696873492</v>
       </c>
       <c r="G13">
-        <v>0.002486945326433872</v>
+        <v>0.000755214520661518</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.781585331487818</v>
+        <v>2.234437584354396</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2602202922534929</v>
+        <v>0.2489998689138702</v>
       </c>
       <c r="M13">
-        <v>0.3780484007665166</v>
+        <v>0.7474544946991557</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.837836338239697</v>
+        <v>4.526743791352374</v>
       </c>
       <c r="C14">
-        <v>0.4118557420333673</v>
+        <v>1.468909861499185</v>
       </c>
       <c r="D14">
-        <v>0.09426190678551905</v>
+        <v>0.06927737467261608</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.470260611856787</v>
+        <v>3.966914068289498</v>
       </c>
       <c r="G14">
-        <v>0.002487926516656191</v>
+        <v>0.0007571037336592008</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.775332835108543</v>
+        <v>2.201579381506434</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2595908691856152</v>
+        <v>0.2454033901064889</v>
       </c>
       <c r="M14">
-        <v>0.374927467511263</v>
+        <v>0.733198234463643</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.825254888862389</v>
+        <v>4.47182241240148</v>
       </c>
       <c r="C15">
-        <v>0.4073713666814456</v>
+        <v>1.450997693654813</v>
       </c>
       <c r="D15">
-        <v>0.09424850085460434</v>
+        <v>0.06912577006606568</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.461572681612097</v>
+        <v>3.924569369935739</v>
       </c>
       <c r="G15">
-        <v>0.002488530917774904</v>
+        <v>0.0007582614888075645</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.771519793425227</v>
+        <v>2.181601503570121</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2592076038042848</v>
+        <v>0.2432126107109269</v>
       </c>
       <c r="M15">
-        <v>0.3730198915986023</v>
+        <v>0.7245023656245522</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.753445997150379</v>
+        <v>4.160216599970852</v>
       </c>
       <c r="C16">
-        <v>0.381681823299175</v>
+        <v>1.349451020975891</v>
       </c>
       <c r="D16">
-        <v>0.09418016079111169</v>
+        <v>0.06832305883748546</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.412187748793542</v>
+        <v>3.685825663660694</v>
       </c>
       <c r="G16">
-        <v>0.002492046623909466</v>
+        <v>0.0007649077492677711</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.749925018111114</v>
+        <v>2.069273118735282</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2570460904050123</v>
+        <v>0.2308353955670128</v>
       </c>
       <c r="M16">
-        <v>0.3621508503406758</v>
+        <v>0.6751962899146662</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.70965180510791</v>
+        <v>3.971632864955666</v>
       </c>
       <c r="C17">
-        <v>0.3659291538778575</v>
+        <v>1.288055451609239</v>
       </c>
       <c r="D17">
-        <v>0.09414575799872438</v>
+        <v>0.06788583741897725</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.382248250240167</v>
+        <v>3.542619049835878</v>
       </c>
       <c r="G17">
-        <v>0.002494250031702801</v>
+        <v>0.0007689985841463075</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.736904695258247</v>
+        <v>2.00216118966776</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2557511096630805</v>
+        <v>0.2233909752897176</v>
       </c>
       <c r="M17">
-        <v>0.3555386922795591</v>
+        <v>0.6453842416655817</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.68455712986713</v>
+        <v>3.864031137436882</v>
       </c>
       <c r="C18">
-        <v>0.356870968014789</v>
+        <v>1.253042315666335</v>
       </c>
       <c r="D18">
-        <v>0.09412871533110234</v>
+        <v>0.06765325177938308</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.365157996587044</v>
+        <v>3.46135641215659</v>
       </c>
       <c r="G18">
-        <v>0.002495534560403062</v>
+        <v>0.0007713577097435778</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.729498809771016</v>
+        <v>1.964173324758548</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2550176624637857</v>
+        <v>0.2191601438137667</v>
       </c>
       <c r="M18">
-        <v>0.3517559540364488</v>
+        <v>0.6283844086429653</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.676076719789762</v>
+        <v>3.827740675359451</v>
       </c>
       <c r="C19">
-        <v>0.3538043988961022</v>
+        <v>1.241236225363764</v>
       </c>
       <c r="D19">
-        <v>0.09412341459392337</v>
+        <v>0.06757762171616832</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.359393801268112</v>
+        <v>3.434024121577892</v>
       </c>
       <c r="G19">
-        <v>0.002495972436260763</v>
+        <v>0.0007721576395733088</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.727005522626214</v>
+        <v>1.951412308780021</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2547712849550265</v>
+        <v>0.2177360906092076</v>
       </c>
       <c r="M19">
-        <v>0.350478682971314</v>
+        <v>0.6226526953042395</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.714303975328448</v>
+        <v>3.991616492415289</v>
       </c>
       <c r="C20">
-        <v>0.3676058053295606</v>
+        <v>1.294559402345783</v>
       </c>
       <c r="D20">
-        <v>0.09414913571469441</v>
+        <v>0.06793039483423513</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.385421870739179</v>
+        <v>3.557747213855151</v>
       </c>
       <c r="G20">
-        <v>0.00249401369737936</v>
+        <v>0.0007685624935777924</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.73828212325607</v>
+        <v>2.009240878878813</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2558877832690456</v>
+        <v>0.2241780895271859</v>
       </c>
       <c r="M20">
-        <v>0.3562404553424443</v>
+        <v>0.6485422650010975</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.843874632017958</v>
+        <v>4.553138537806888</v>
       </c>
       <c r="C21">
-        <v>0.4140062830360307</v>
+        <v>1.477519918599853</v>
       </c>
       <c r="D21">
-        <v>0.09426848605414051</v>
+        <v>0.06935129744199742</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.474433854492219</v>
+        <v>3.987292324345589</v>
       </c>
       <c r="G21">
-        <v>0.002487637610428944</v>
+        <v>0.0007565487175271655</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.777165842441121</v>
+        <v>2.211199335709992</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2597752719255766</v>
+        <v>0.2464572045728204</v>
       </c>
       <c r="M21">
-        <v>0.3758433094906337</v>
+        <v>0.7373779549886237</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.929405638982018</v>
+        <v>4.929638045965419</v>
       </c>
       <c r="C22">
-        <v>0.4443578364426344</v>
+        <v>1.600457517867994</v>
       </c>
       <c r="D22">
-        <v>0.09437134176632611</v>
+        <v>0.0704796565094199</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.533786099696869</v>
+        <v>4.279892313847483</v>
       </c>
       <c r="G22">
-        <v>0.002483622492742615</v>
+        <v>0.0007487252846258214</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.803328866411277</v>
+        <v>2.349715821901711</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.262417728153352</v>
+        <v>0.2615525417899676</v>
       </c>
       <c r="M22">
-        <v>0.3888376442214181</v>
+        <v>0.7970355498939128</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.883678099376482</v>
+        <v>4.727727894195596</v>
       </c>
       <c r="C23">
-        <v>0.4281559840623004</v>
+        <v>1.534499076132363</v>
       </c>
       <c r="D23">
-        <v>0.094314151705575</v>
+        <v>0.06985747901534012</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.502000009554763</v>
+        <v>4.122533658272744</v>
       </c>
       <c r="G23">
-        <v>0.002485751575664559</v>
+        <v>0.0007528996269737797</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.789296001610637</v>
+        <v>2.275133675128501</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2609980729910433</v>
+        <v>0.2534427287851457</v>
       </c>
       <c r="M23">
-        <v>0.3818855493577331</v>
+        <v>0.7650337775775782</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.712200470130199</v>
+        <v>3.982579366732523</v>
       </c>
       <c r="C24">
-        <v>0.3668477967688659</v>
+        <v>1.291618088873292</v>
       </c>
       <c r="D24">
-        <v>0.09414760013189749</v>
+        <v>0.06791019226443495</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.383986695985556</v>
+        <v>3.550904463192268</v>
       </c>
       <c r="G24">
-        <v>0.00249412048883511</v>
+        <v>0.0007687596271801489</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.737659140016518</v>
+        <v>2.006038307184497</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2558259587032126</v>
+        <v>0.2238220832026343</v>
       </c>
       <c r="M24">
-        <v>0.3559231300908721</v>
+        <v>0.6471140911233917</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.530845922881099</v>
+        <v>3.211205080506431</v>
       </c>
       <c r="C25">
-        <v>0.300802875935176</v>
+        <v>1.040818547258823</v>
       </c>
       <c r="D25">
-        <v>0.09407264808275784</v>
+        <v>0.0665194375752165</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.261654829178156</v>
+        <v>2.975756036241137</v>
       </c>
       <c r="G25">
-        <v>0.002503805437852961</v>
+        <v>0.0007861149419844601</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.685129508552123</v>
+        <v>1.738773481865209</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2506823115701451</v>
+        <v>0.1937869434777966</v>
       </c>
       <c r="M25">
-        <v>0.3286977073501376</v>
+        <v>0.5254290300375786</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.663120016643347</v>
+        <v>0.7586821417768874</v>
       </c>
       <c r="C2">
-        <v>0.8627401064875357</v>
+        <v>0.1684134421393253</v>
       </c>
       <c r="D2">
-        <v>0.06597022621822646</v>
+        <v>0.1459624882827057</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.57897895282106</v>
+        <v>1.274776991661184</v>
       </c>
       <c r="G2">
-        <v>0.0007992271996433699</v>
+        <v>0.9073729450194463</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.00846064891139553</v>
       </c>
       <c r="I2">
-        <v>1.557048663797829</v>
+        <v>0.008801492006436984</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6478266572674727</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6277681290692456</v>
       </c>
       <c r="L2">
-        <v>0.1729566505030391</v>
+        <v>0.2043932250378973</v>
       </c>
       <c r="M2">
-        <v>0.4392911462026774</v>
+        <v>0.8956240949009384</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3885099109736032</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.300764305304654</v>
+        <v>0.6605134132383341</v>
       </c>
       <c r="C3">
-        <v>0.7449122350574555</v>
+        <v>0.1461920508252348</v>
       </c>
       <c r="D3">
-        <v>0.06583882121256934</v>
+        <v>0.1282538913402647</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.323015557331672</v>
+        <v>1.208664185880693</v>
       </c>
       <c r="G3">
-        <v>0.0008083720863878964</v>
+        <v>0.8643816807166189</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01144338415230665</v>
       </c>
       <c r="I3">
-        <v>1.441321864738782</v>
+        <v>0.01161628858344788</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6321830605170646</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6128647814634647</v>
       </c>
       <c r="L3">
-        <v>0.1594880803681704</v>
+        <v>0.1820559602090839</v>
       </c>
       <c r="M3">
-        <v>0.3825385137051143</v>
+        <v>0.7794967973080986</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.338904152932038</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.081817294440953</v>
+        <v>0.6000900001163529</v>
       </c>
       <c r="C4">
-        <v>0.6736216133496384</v>
+        <v>0.1327862438277805</v>
       </c>
       <c r="D4">
-        <v>0.06586128845710348</v>
+        <v>0.1174627433828164</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.171170995103495</v>
+        <v>1.168378690019395</v>
       </c>
       <c r="G4">
-        <v>0.0008141291284547385</v>
+        <v>0.8382440812437295</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01357525387375133</v>
       </c>
       <c r="I4">
-        <v>1.373367721969956</v>
+        <v>0.01364747849957659</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6227765931973579</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6037737616131515</v>
       </c>
       <c r="L4">
-        <v>0.1514940571584447</v>
+        <v>0.1683139370355278</v>
       </c>
       <c r="M4">
-        <v>0.3483409812783194</v>
+        <v>0.7083464339372512</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.308527078302788</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.993359895822437</v>
+        <v>0.5751300128353876</v>
       </c>
       <c r="C5">
-        <v>0.6447887886323258</v>
+        <v>0.1277720634196413</v>
       </c>
       <c r="D5">
-        <v>0.06589429296025173</v>
+        <v>0.1132681163105502</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.110487996338705</v>
+        <v>1.15067956934729</v>
       </c>
       <c r="G5">
-        <v>0.0008165128300458368</v>
+        <v>0.8263503039735554</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01452097894772197</v>
       </c>
       <c r="I5">
-        <v>1.346380578618124</v>
+        <v>0.01463789881870081</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.6183194674593437</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5991532956737657</v>
       </c>
       <c r="L5">
-        <v>0.1482998472300423</v>
+        <v>0.1626549642361823</v>
       </c>
       <c r="M5">
-        <v>0.3345480888697381</v>
+        <v>0.6796578667916719</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2963022655244814</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.978714388869435</v>
+        <v>0.5706209052501094</v>
       </c>
       <c r="C6">
-        <v>0.6400130387818592</v>
+        <v>0.1274259111383031</v>
       </c>
       <c r="D6">
-        <v>0.06590115634111626</v>
+        <v>0.1127983783802762</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.100479868816066</v>
+        <v>1.146091986208255</v>
       </c>
       <c r="G6">
-        <v>0.0008169109702225175</v>
+        <v>0.8227892305865794</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01468755670098337</v>
       </c>
       <c r="I6">
-        <v>1.341939863075623</v>
+        <v>0.01492339903286144</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.616762248349346</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5972528796672805</v>
       </c>
       <c r="L6">
-        <v>0.1477731176752357</v>
+        <v>0.16165374139905</v>
       </c>
       <c r="M6">
-        <v>0.3322658602494641</v>
+        <v>0.67523449021121</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2944417403321253</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.080621385589609</v>
+        <v>0.5987611060444635</v>
       </c>
       <c r="C7">
-        <v>0.6732319371930089</v>
+        <v>0.134039846024038</v>
       </c>
       <c r="D7">
-        <v>0.06586163962348834</v>
+        <v>0.1180235149492717</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.170347944122682</v>
+        <v>1.163626547189565</v>
       </c>
       <c r="G7">
-        <v>0.0008141611209411349</v>
+        <v>0.8337418063843671</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0136011854040636</v>
       </c>
       <c r="I7">
-        <v>1.373001005567502</v>
+        <v>0.01396150598574675</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.6204793266148414</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6006152342652271</v>
       </c>
       <c r="L7">
-        <v>0.1514507296100618</v>
+        <v>0.1680709874277113</v>
       </c>
       <c r="M7">
-        <v>0.3481544124899472</v>
+        <v>0.7088864019199121</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.3088232628890566</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.537365833154581</v>
+        <v>0.7235315913337956</v>
       </c>
       <c r="C8">
-        <v>0.8218641810174461</v>
+        <v>0.162459831850768</v>
       </c>
       <c r="D8">
-        <v>0.06590218794420011</v>
+        <v>0.14066108178028</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.489529291716039</v>
+        <v>1.245949757015438</v>
       </c>
       <c r="G8">
-        <v>0.000802352097203848</v>
+        <v>0.8867550566316993</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.009439129864219131</v>
       </c>
       <c r="I8">
-        <v>1.516454595200713</v>
+        <v>0.01006531219586115</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6394441844186929</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6185331914340466</v>
       </c>
       <c r="L8">
-        <v>0.1682517380914987</v>
+        <v>0.1964737046293337</v>
       </c>
       <c r="M8">
-        <v>0.4195753854171826</v>
+        <v>0.8567796380353059</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3720008467332292</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.467471385294289</v>
+        <v>0.9690575738497103</v>
       </c>
       <c r="C9">
-        <v>1.124094202131545</v>
+        <v>0.217929781226772</v>
       </c>
       <c r="D9">
-        <v>0.06690598761724686</v>
+        <v>0.1846803589159833</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.164803596094515</v>
+        <v>1.418278576484028</v>
       </c>
       <c r="G9">
-        <v>0.000780224308657861</v>
+        <v>1.00085789714845</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.003778642336833227</v>
       </c>
       <c r="I9">
-        <v>1.826175205500391</v>
+        <v>0.004519407755224414</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6823299193365813</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6597636157561624</v>
       </c>
       <c r="L9">
-        <v>0.2036825696497928</v>
+        <v>0.2523744090428437</v>
       </c>
       <c r="M9">
-        <v>0.5658036260823991</v>
+        <v>1.146784177323099</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4958923045417052</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.181858421944071</v>
+        <v>1.152433129895996</v>
       </c>
       <c r="C10">
-        <v>1.356499506095531</v>
+        <v>0.2598720221463253</v>
       </c>
       <c r="D10">
-        <v>0.06837560766074091</v>
+        <v>0.211948429764746</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.702322784867278</v>
+        <v>1.51687210528047</v>
       </c>
       <c r="G10">
-        <v>0.0007644417097861026</v>
+        <v>1.0649399338769</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001657676473656</v>
       </c>
       <c r="I10">
-        <v>2.077017507553535</v>
+        <v>0.002380959571518737</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7041165313327298</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.677787888735331</v>
       </c>
       <c r="L10">
-        <v>0.2316920224619849</v>
+        <v>0.2772467166528401</v>
       </c>
       <c r="M10">
-        <v>0.6786189154385696</v>
+        <v>1.363810422744422</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5755961706629336</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.516228419987783</v>
+        <v>1.267827911635408</v>
       </c>
       <c r="C11">
-        <v>1.465480006426787</v>
+        <v>0.271749707043881</v>
       </c>
       <c r="D11">
-        <v>0.06924811655377283</v>
+        <v>0.1760574617089077</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.958800607643497</v>
+        <v>1.320922891134941</v>
       </c>
       <c r="G11">
-        <v>0.0007573250961344696</v>
+        <v>0.9247884026449071</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02033642156493443</v>
       </c>
       <c r="I11">
-        <v>2.197750283425862</v>
+        <v>0.002476690627644551</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6282873156029609</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5885465363451345</v>
       </c>
       <c r="L11">
-        <v>0.244983732195621</v>
+        <v>0.1691728417128502</v>
       </c>
       <c r="M11">
-        <v>0.7315331813097075</v>
+        <v>1.480883799916597</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.5087896469365063</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.6444537300207</v>
+        <v>1.329816601302809</v>
       </c>
       <c r="C12">
-        <v>1.507315577708425</v>
+        <v>0.2705388260389441</v>
       </c>
       <c r="D12">
-        <v>0.06961232961980812</v>
+        <v>0.1423802329847774</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.057930749160079</v>
+        <v>1.152989520969385</v>
       </c>
       <c r="G12">
-        <v>0.0007546354152612435</v>
+        <v>0.8073330398681264</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05929489933727439</v>
       </c>
       <c r="I12">
-        <v>2.244573605420129</v>
+        <v>0.00240310535059951</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5666503669959297</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5196981246297483</v>
       </c>
       <c r="L12">
-        <v>0.250107619638726</v>
+        <v>0.1022539936729387</v>
       </c>
       <c r="M12">
-        <v>0.7518408464901469</v>
+        <v>1.53305844835478</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4390828966281219</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.616762171787741</v>
+        <v>1.352053886888655</v>
       </c>
       <c r="C13">
-        <v>1.498278587599884</v>
+        <v>0.2612766534519864</v>
       </c>
       <c r="D13">
-        <v>0.06953230682659495</v>
+        <v>0.1096214461430662</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.03648696873492</v>
+        <v>0.9901168811674665</v>
       </c>
       <c r="G13">
-        <v>0.000755214520661518</v>
+        <v>0.693762415297897</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1155442722640743</v>
       </c>
       <c r="I13">
-        <v>2.234437584354396</v>
+        <v>0.002559521545057564</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5088109671027894</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4576298261641156</v>
       </c>
       <c r="L13">
-        <v>0.2489998689138702</v>
+        <v>0.06278721586618374</v>
       </c>
       <c r="M13">
-        <v>0.7474544946991557</v>
+        <v>1.539225877512308</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3643687048238675</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.526743791352374</v>
+        <v>1.349255021437784</v>
       </c>
       <c r="C14">
-        <v>1.468909861499185</v>
+        <v>0.2516139736548837</v>
       </c>
       <c r="D14">
-        <v>0.06927737467261608</v>
+        <v>0.08789949662171637</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.966914068289498</v>
+        <v>0.8797790877351588</v>
       </c>
       <c r="G14">
-        <v>0.0007571037336592008</v>
+        <v>0.6166323160858553</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1653531419252801</v>
       </c>
       <c r="I14">
-        <v>2.201579381506434</v>
+        <v>0.002884428350997226</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4702598524942232</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4175600781362405</v>
       </c>
       <c r="L14">
-        <v>0.2454033901064889</v>
+        <v>0.05153459686514905</v>
       </c>
       <c r="M14">
-        <v>0.733198234463643</v>
+        <v>1.523017454942845</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3110377059466529</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.47182241240148</v>
+        <v>1.339354253824922</v>
       </c>
       <c r="C15">
-        <v>1.450997693654813</v>
+        <v>0.2481131377942205</v>
       </c>
       <c r="D15">
-        <v>0.06912577006606568</v>
+        <v>0.08257359272091236</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.924569369935739</v>
+        <v>0.8515332246176825</v>
       </c>
       <c r="G15">
-        <v>0.0007582614888075645</v>
+        <v>0.5966485605462566</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1780661162834178</v>
       </c>
       <c r="I15">
-        <v>2.181601503570121</v>
+        <v>0.003156183951917413</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.460670319573893</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4078197887948569</v>
       </c>
       <c r="L15">
-        <v>0.2432126107109269</v>
+        <v>0.05083488715746043</v>
       </c>
       <c r="M15">
-        <v>0.7245023656245522</v>
+        <v>1.509526389856092</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2967082654646376</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.160216599970852</v>
+        <v>1.253963164897044</v>
       </c>
       <c r="C16">
-        <v>1.349451020975891</v>
+        <v>0.2328201323432637</v>
       </c>
       <c r="D16">
-        <v>0.06832305883748546</v>
+        <v>0.07877543486856808</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.685825663660694</v>
+        <v>0.8424621264971961</v>
       </c>
       <c r="G16">
-        <v>0.0007649077492677711</v>
+        <v>0.5911823065295039</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1663321557381892</v>
       </c>
       <c r="I16">
-        <v>2.069273118735282</v>
+        <v>0.004080272027817244</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.462222966588385</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4115031025679912</v>
       </c>
       <c r="L16">
-        <v>0.2308353955670128</v>
+        <v>0.04948046740997558</v>
       </c>
       <c r="M16">
-        <v>0.6751962899146662</v>
+        <v>1.414508196446178</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2802209214143332</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.971632864955666</v>
+        <v>1.190148721562878</v>
       </c>
       <c r="C17">
-        <v>1.288055451609239</v>
+        <v>0.2263078229326538</v>
       </c>
       <c r="D17">
-        <v>0.06788583741897725</v>
+        <v>0.08697074639378854</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.542619049835878</v>
+        <v>0.8925234857751008</v>
       </c>
       <c r="G17">
-        <v>0.0007689985841463075</v>
+        <v>0.6269225836615249</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1290854324246311</v>
       </c>
       <c r="I17">
-        <v>2.00216118966776</v>
+        <v>0.004676287356065068</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4834652913819468</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4349544891576045</v>
       </c>
       <c r="L17">
-        <v>0.2233909752897176</v>
+        <v>0.05159374322736543</v>
       </c>
       <c r="M17">
-        <v>0.6453842416655817</v>
+        <v>1.350522809444868</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.295121407440881</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.864031137436882</v>
+        <v>1.139015531387656</v>
       </c>
       <c r="C18">
-        <v>1.253042315666335</v>
+        <v>0.2253703779221468</v>
       </c>
       <c r="D18">
-        <v>0.06765325177938308</v>
+        <v>0.1078241075726112</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.46135641215659</v>
+        <v>1.008147604969409</v>
       </c>
       <c r="G18">
-        <v>0.0007713577097435778</v>
+        <v>0.7090625956754764</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07622669158059381</v>
       </c>
       <c r="I18">
-        <v>1.964173324758548</v>
+        <v>0.004630377830142862</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5274225878175685</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4828441752749981</v>
       </c>
       <c r="L18">
-        <v>0.2191601438137667</v>
+        <v>0.07126059637403515</v>
       </c>
       <c r="M18">
-        <v>0.6283844086429653</v>
+        <v>1.305163902851632</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3408332889788852</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.827740675359451</v>
+        <v>1.100399287646013</v>
       </c>
       <c r="C19">
-        <v>1.241236225363764</v>
+        <v>0.2315115940139805</v>
       </c>
       <c r="D19">
-        <v>0.06757762171616832</v>
+        <v>0.1410690888880595</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.434024121577892</v>
+        <v>1.171813186810184</v>
       </c>
       <c r="G19">
-        <v>0.0007721576395733088</v>
+        <v>0.8231803869358032</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03030694138146117</v>
       </c>
       <c r="I19">
-        <v>1.951412308780021</v>
+        <v>0.004605746726059401</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5864418272807086</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5473532224066915</v>
       </c>
       <c r="L19">
-        <v>0.2177360906092076</v>
+        <v>0.1250068189330733</v>
       </c>
       <c r="M19">
-        <v>0.6226526953042395</v>
+        <v>1.280217669180985</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4128604174897816</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.991616492415289</v>
+        <v>1.101210083940884</v>
       </c>
       <c r="C20">
-        <v>1.294559402345783</v>
+        <v>0.2529328621636751</v>
       </c>
       <c r="D20">
-        <v>0.06793039483423513</v>
+        <v>0.2064602049132986</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.557747213855151</v>
+        <v>1.47577058384681</v>
       </c>
       <c r="G20">
-        <v>0.0007685624935777924</v>
+        <v>1.033817819668272</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002103403624577282</v>
       </c>
       <c r="I20">
-        <v>2.009240878878813</v>
+        <v>0.003674666837110152</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6910840929865287</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.6631222398743262</v>
       </c>
       <c r="L20">
-        <v>0.2241780895271859</v>
+        <v>0.2695013097850278</v>
       </c>
       <c r="M20">
-        <v>0.6485422650010975</v>
+        <v>1.309704626007203</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.555571006553528</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.553138537806888</v>
+        <v>1.236829425767695</v>
       </c>
       <c r="C21">
-        <v>1.477519918599853</v>
+        <v>0.2865736949794666</v>
       </c>
       <c r="D21">
-        <v>0.06935129744199742</v>
+        <v>0.2364394226221833</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.987292324345589</v>
+        <v>1.598734071906506</v>
       </c>
       <c r="G21">
-        <v>0.0007565487175271655</v>
+        <v>1.116863821269007</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0006134168815212782</v>
       </c>
       <c r="I21">
-        <v>2.211199335709992</v>
+        <v>0.002392520576417922</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7250352786347349</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6966080801752241</v>
       </c>
       <c r="L21">
-        <v>0.2464572045728204</v>
+        <v>0.3138673242232386</v>
       </c>
       <c r="M21">
-        <v>0.7373779549886237</v>
+        <v>1.473536121842272</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.6358247925850193</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.929638045965419</v>
+        <v>1.328783974632472</v>
       </c>
       <c r="C22">
-        <v>1.600457517867994</v>
+        <v>0.3066307744171581</v>
       </c>
       <c r="D22">
-        <v>0.0704796565094199</v>
+        <v>0.2523089816551902</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.279892313847483</v>
+        <v>1.671258738299542</v>
       </c>
       <c r="G22">
-        <v>0.0007487252846258214</v>
+        <v>1.167312010922018</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0001646133092254587</v>
       </c>
       <c r="I22">
-        <v>2.349715821901711</v>
+        <v>0.001633647158540974</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7453384110470012</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.7168658146513422</v>
       </c>
       <c r="L22">
-        <v>0.2615525417899676</v>
+        <v>0.3349049774880228</v>
       </c>
       <c r="M22">
-        <v>0.7970355498939128</v>
+        <v>1.580846222660682</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6816240703186551</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.727727894195596</v>
+        <v>1.280924723724894</v>
       </c>
       <c r="C23">
-        <v>1.534499076132363</v>
+        <v>0.2942730677051486</v>
       </c>
       <c r="D23">
-        <v>0.06985747901534012</v>
+        <v>0.2430730005613242</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.122533658272744</v>
+        <v>1.637764003372112</v>
       </c>
       <c r="G23">
-        <v>0.0007528996269737797</v>
+        <v>1.145398133042747</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0003657072719316368</v>
       </c>
       <c r="I23">
-        <v>2.275133675128501</v>
+        <v>0.001683010476358326</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7370504320561508</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.7096138133285379</v>
       </c>
       <c r="L23">
-        <v>0.2534427287851457</v>
+        <v>0.323870881093498</v>
       </c>
       <c r="M23">
-        <v>0.7650337775775782</v>
+        <v>1.522406529235951</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.6565990711395955</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.982579366732523</v>
+        <v>1.097917080314829</v>
       </c>
       <c r="C24">
-        <v>1.291618088873292</v>
+        <v>0.2507997649412346</v>
       </c>
       <c r="D24">
-        <v>0.06791019226443495</v>
+        <v>0.2095624098304256</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.550904463192268</v>
+        <v>1.504031370444807</v>
       </c>
       <c r="G24">
-        <v>0.0007687596271801489</v>
+        <v>1.055662627909911</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001894964307206592</v>
       </c>
       <c r="I24">
-        <v>2.006038307184497</v>
+        <v>0.003137609955762954</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7023024357200569</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.6769375244917128</v>
       </c>
       <c r="L24">
-        <v>0.2238220832026343</v>
+        <v>0.281925869185045</v>
       </c>
       <c r="M24">
-        <v>0.6471140911233917</v>
+        <v>1.303887743384394</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5631689256104906</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.211205080506431</v>
+        <v>0.9008603853990849</v>
       </c>
       <c r="C25">
-        <v>1.040818547258823</v>
+        <v>0.2050979905146306</v>
       </c>
       <c r="D25">
-        <v>0.0665194375752165</v>
+        <v>0.17381537075957</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.975756036241137</v>
+        <v>1.363178143382001</v>
       </c>
       <c r="G25">
-        <v>0.0007861149419844601</v>
+        <v>0.9618799788610914</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.005033740706143375</v>
       </c>
       <c r="I25">
-        <v>1.738773481865209</v>
+        <v>0.006213414656268235</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6665307878530626</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6429973964826203</v>
       </c>
       <c r="L25">
-        <v>0.1937869434777966</v>
+        <v>0.2369396844066145</v>
       </c>
       <c r="M25">
-        <v>0.5254290300375786</v>
+        <v>1.069781638260253</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.4631051118337908</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_38/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7586821417768874</v>
+        <v>0.741818761097079</v>
       </c>
       <c r="C2">
-        <v>0.1684134421393253</v>
+        <v>0.2025204190959471</v>
       </c>
       <c r="D2">
-        <v>0.1459624882827057</v>
+        <v>0.1668343585013758</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.274776991661184</v>
+        <v>1.129213708822718</v>
       </c>
       <c r="G2">
-        <v>0.9073729450194463</v>
+        <v>0.75617405270809</v>
       </c>
       <c r="H2">
-        <v>0.00846064891139553</v>
+        <v>0.007340106025612469</v>
       </c>
       <c r="I2">
-        <v>0.008801492006436984</v>
+        <v>0.006018945484038696</v>
       </c>
       <c r="J2">
-        <v>0.6478266572674727</v>
+        <v>0.5830021111896713</v>
       </c>
       <c r="K2">
-        <v>0.6277681290692456</v>
+        <v>0.5146854683212396</v>
       </c>
       <c r="L2">
-        <v>0.2043932250378973</v>
+        <v>0.2264175353899667</v>
       </c>
       <c r="M2">
-        <v>0.8956240949009384</v>
+        <v>0.1625226344128308</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2045259485062729</v>
       </c>
       <c r="O2">
-        <v>0.3885099109736032</v>
+        <v>0.9274848052155846</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4032624738630659</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6605134132383341</v>
+        <v>0.6485860757509556</v>
       </c>
       <c r="C3">
-        <v>0.1461920508252348</v>
+        <v>0.1736048522599418</v>
       </c>
       <c r="D3">
-        <v>0.1282538913402647</v>
+        <v>0.1461166627919965</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.208664185880693</v>
+        <v>1.080651579161184</v>
       </c>
       <c r="G3">
-        <v>0.8643816807166189</v>
+        <v>0.7321469758181678</v>
       </c>
       <c r="H3">
-        <v>0.01144338415230665</v>
+        <v>0.00996787614925565</v>
       </c>
       <c r="I3">
-        <v>0.01161628858344788</v>
+        <v>0.007997302821156183</v>
       </c>
       <c r="J3">
-        <v>0.6321830605170646</v>
+        <v>0.5704307116796485</v>
       </c>
       <c r="K3">
-        <v>0.6128647814634647</v>
+        <v>0.5099815691752418</v>
       </c>
       <c r="L3">
-        <v>0.1820559602090839</v>
+        <v>0.2294407265164864</v>
       </c>
       <c r="M3">
-        <v>0.7794967973080986</v>
+        <v>0.157459271427097</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1832480617775687</v>
       </c>
       <c r="O3">
-        <v>0.338904152932038</v>
+        <v>0.8065730550291335</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3512802097705432</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6000900001163529</v>
+        <v>0.5910883638144639</v>
       </c>
       <c r="C4">
-        <v>0.1327862438277805</v>
+        <v>0.1562059521771033</v>
       </c>
       <c r="D4">
-        <v>0.1174627433828164</v>
+        <v>0.1335128488312591</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.168378690019395</v>
+        <v>1.050966265076752</v>
       </c>
       <c r="G4">
-        <v>0.8382440812437295</v>
+        <v>0.7176666550266191</v>
       </c>
       <c r="H4">
-        <v>0.01357525387375133</v>
+        <v>0.01184997385866053</v>
       </c>
       <c r="I4">
-        <v>0.01364747849957659</v>
+        <v>0.009450845041070632</v>
       </c>
       <c r="J4">
-        <v>0.6227765931973579</v>
+        <v>0.5626306080515349</v>
       </c>
       <c r="K4">
-        <v>0.6037737616131515</v>
+        <v>0.5070657823143563</v>
       </c>
       <c r="L4">
-        <v>0.1683139370355278</v>
+        <v>0.2312075149046926</v>
       </c>
       <c r="M4">
-        <v>0.7083464339372512</v>
+        <v>0.154937554877133</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1701393199450365</v>
       </c>
       <c r="O4">
-        <v>0.308527078302788</v>
+        <v>0.7324670008050589</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3194530987792703</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5751300128353876</v>
+        <v>0.5673200583905214</v>
       </c>
       <c r="C5">
-        <v>0.1277720634196413</v>
+        <v>0.1496056453042485</v>
       </c>
       <c r="D5">
-        <v>0.1132681163105502</v>
+        <v>0.1285835581619637</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.15067956934729</v>
+        <v>1.037728948579073</v>
       </c>
       <c r="G5">
-        <v>0.8263503039735554</v>
+        <v>0.7107418270286132</v>
       </c>
       <c r="H5">
-        <v>0.01452097894772197</v>
+        <v>0.0126855732250542</v>
       </c>
       <c r="I5">
-        <v>0.01463789881870081</v>
+        <v>0.01020036438444194</v>
       </c>
       <c r="J5">
-        <v>0.6183194674593437</v>
+        <v>0.5588484683713517</v>
       </c>
       <c r="K5">
-        <v>0.5991532956737657</v>
+        <v>0.5051191097956895</v>
       </c>
       <c r="L5">
-        <v>0.1626549642361823</v>
+        <v>0.2315610855235128</v>
       </c>
       <c r="M5">
-        <v>0.6796578667916719</v>
+        <v>0.1538381818981591</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1647385697784074</v>
       </c>
       <c r="O5">
-        <v>0.2963022655244814</v>
+        <v>0.7025532887654009</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3066314477475416</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5706209052501094</v>
+        <v>0.5630372883220502</v>
       </c>
       <c r="C6">
-        <v>0.1274259111383031</v>
+        <v>0.1490128264098303</v>
       </c>
       <c r="D6">
-        <v>0.1127983783802762</v>
+        <v>0.1279865572635117</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.146091986208255</v>
+        <v>1.034106043511279</v>
       </c>
       <c r="G6">
-        <v>0.8227892305865794</v>
+        <v>0.7082701324022196</v>
       </c>
       <c r="H6">
-        <v>0.01468755670098337</v>
+        <v>0.01283256062138871</v>
       </c>
       <c r="I6">
-        <v>0.01492339903286144</v>
+        <v>0.0104585961145931</v>
       </c>
       <c r="J6">
-        <v>0.616762248349346</v>
+        <v>0.5575078786304033</v>
       </c>
       <c r="K6">
-        <v>0.5972528796672805</v>
+        <v>0.5038802567286709</v>
       </c>
       <c r="L6">
-        <v>0.16165374139905</v>
+        <v>0.2311998184453863</v>
       </c>
       <c r="M6">
-        <v>0.67523449021121</v>
+        <v>0.1533971599960466</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1637849498303652</v>
       </c>
       <c r="O6">
-        <v>0.2944417403321253</v>
+        <v>0.697904750091709</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3046614802785257</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5987611060444635</v>
+        <v>0.5900358360198368</v>
       </c>
       <c r="C7">
-        <v>0.134039846024038</v>
+        <v>0.157072419286294</v>
       </c>
       <c r="D7">
-        <v>0.1180235149492717</v>
+        <v>0.1344416223788443</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.163626547189565</v>
+        <v>1.04459869920268</v>
       </c>
       <c r="G7">
-        <v>0.8337418063843671</v>
+        <v>0.7164696832267623</v>
       </c>
       <c r="H7">
-        <v>0.0136011854040636</v>
+        <v>0.01188032533153791</v>
       </c>
       <c r="I7">
-        <v>0.01396150598574675</v>
+        <v>0.009806786777543763</v>
       </c>
       <c r="J7">
-        <v>0.6204793266148414</v>
+        <v>0.5545842624314758</v>
       </c>
       <c r="K7">
-        <v>0.6006152342652271</v>
+        <v>0.5034156042479161</v>
       </c>
       <c r="L7">
-        <v>0.1680709874277113</v>
+        <v>0.2295879190083596</v>
       </c>
       <c r="M7">
-        <v>0.7088864019199121</v>
+        <v>0.1538299281319357</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1698673539302717</v>
       </c>
       <c r="O7">
-        <v>0.3088232628890566</v>
+        <v>0.732584377843466</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3197829987800418</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7235315913337956</v>
+        <v>0.7091020962584764</v>
       </c>
       <c r="C8">
-        <v>0.162459831850768</v>
+        <v>0.1929202154134231</v>
       </c>
       <c r="D8">
-        <v>0.14066108178028</v>
+        <v>0.161795403218747</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.245949757015438</v>
+        <v>1.099754801189007</v>
       </c>
       <c r="G8">
-        <v>0.8867550566316993</v>
+        <v>0.7515060451089539</v>
       </c>
       <c r="H8">
-        <v>0.009439129864219131</v>
+        <v>0.008221347100908688</v>
       </c>
       <c r="I8">
-        <v>0.01006531219586115</v>
+        <v>0.00707886769785393</v>
       </c>
       <c r="J8">
-        <v>0.6394441844186929</v>
+        <v>0.5563901454479918</v>
       </c>
       <c r="K8">
-        <v>0.6185331914340466</v>
+        <v>0.5061358854885611</v>
       </c>
       <c r="L8">
-        <v>0.1964737046293337</v>
+        <v>0.2245719637953023</v>
       </c>
       <c r="M8">
-        <v>0.8567796380353059</v>
+        <v>0.1583619805154726</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1968439213530147</v>
       </c>
       <c r="O8">
-        <v>0.3720008467332292</v>
+        <v>0.8857485780122261</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3861288738791018</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9690575738497103</v>
+        <v>0.9417355768925404</v>
       </c>
       <c r="C9">
-        <v>0.217929781226772</v>
+        <v>0.2652972722242168</v>
       </c>
       <c r="D9">
-        <v>0.1846803589159833</v>
+        <v>0.2139316141102228</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.418278576484028</v>
+        <v>1.224498653499552</v>
       </c>
       <c r="G9">
-        <v>1.00085789714845</v>
+        <v>0.8199531292707718</v>
       </c>
       <c r="H9">
-        <v>0.003778642336833227</v>
+        <v>0.003250279601556882</v>
       </c>
       <c r="I9">
-        <v>0.004519407755224414</v>
+        <v>0.003185021294483725</v>
       </c>
       <c r="J9">
-        <v>0.6823299193365813</v>
+        <v>0.5842609050497174</v>
       </c>
       <c r="K9">
-        <v>0.6597636157561624</v>
+        <v>0.5197931104323814</v>
       </c>
       <c r="L9">
-        <v>0.2523744090428437</v>
+        <v>0.2176802139763652</v>
       </c>
       <c r="M9">
-        <v>1.146784177323099</v>
+        <v>0.1746609142083102</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2499306511949158</v>
       </c>
       <c r="O9">
-        <v>0.4958923045417052</v>
+        <v>1.187235715007802</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5160835898178817</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.152433129895996</v>
+        <v>1.116642561219464</v>
       </c>
       <c r="C10">
-        <v>0.2598720221463253</v>
+        <v>0.3167302903588052</v>
       </c>
       <c r="D10">
-        <v>0.211948429764746</v>
+        <v>0.2488495855087791</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.51687210528047</v>
+        <v>1.279563309310106</v>
       </c>
       <c r="G10">
-        <v>1.0649399338769</v>
+        <v>0.8706987718210684</v>
       </c>
       <c r="H10">
-        <v>0.001657676473656</v>
+        <v>0.001443823714443848</v>
       </c>
       <c r="I10">
-        <v>0.002380959571518737</v>
+        <v>0.001900689544642731</v>
       </c>
       <c r="J10">
-        <v>0.7041165313327298</v>
+        <v>0.5634402382403323</v>
       </c>
       <c r="K10">
-        <v>0.677787888735331</v>
+        <v>0.5148301964281785</v>
       </c>
       <c r="L10">
-        <v>0.2772467166528401</v>
+        <v>0.2069153958763827</v>
       </c>
       <c r="M10">
-        <v>1.363810422744422</v>
+        <v>0.1835873253056377</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2726664236293175</v>
       </c>
       <c r="O10">
-        <v>0.5755961706629336</v>
+        <v>1.409760150100539</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6000974974661446</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.267827911635408</v>
+        <v>1.235040540880874</v>
       </c>
       <c r="C11">
-        <v>0.271749707043881</v>
+        <v>0.3196750724911794</v>
       </c>
       <c r="D11">
-        <v>0.1760574617089077</v>
+        <v>0.2124729465405295</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.320922891134941</v>
+        <v>1.089128541751279</v>
       </c>
       <c r="G11">
-        <v>0.9247884026449071</v>
+        <v>0.7869906151407946</v>
       </c>
       <c r="H11">
-        <v>0.02033642156493443</v>
+        <v>0.02015847213536404</v>
       </c>
       <c r="I11">
-        <v>0.002476690627644551</v>
+        <v>0.002291943001340613</v>
       </c>
       <c r="J11">
-        <v>0.6282873156029609</v>
+        <v>0.4485689607319472</v>
       </c>
       <c r="K11">
-        <v>0.5885465363451345</v>
+        <v>0.4373882890397596</v>
       </c>
       <c r="L11">
-        <v>0.1691728417128502</v>
+        <v>0.1763973845925655</v>
       </c>
       <c r="M11">
-        <v>1.480883799916597</v>
+        <v>0.1572908800972677</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1658432420932598</v>
       </c>
       <c r="O11">
-        <v>0.5087896469365063</v>
+        <v>1.520557020531413</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5311718087842436</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.329816601302809</v>
+        <v>1.300918971824416</v>
       </c>
       <c r="C12">
-        <v>0.2705388260389441</v>
+        <v>0.3103797511191431</v>
       </c>
       <c r="D12">
-        <v>0.1423802329847774</v>
+        <v>0.1751614546365232</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.152989520969385</v>
+        <v>0.9420954734981564</v>
       </c>
       <c r="G12">
-        <v>0.8073330398681264</v>
+        <v>0.7051248140591611</v>
       </c>
       <c r="H12">
-        <v>0.05929489933727439</v>
+        <v>0.0591098192804651</v>
       </c>
       <c r="I12">
-        <v>0.00240310535059951</v>
+        <v>0.00225059299039998</v>
       </c>
       <c r="J12">
-        <v>0.5666503669959297</v>
+        <v>0.38775633232963</v>
       </c>
       <c r="K12">
-        <v>0.5196981246297483</v>
+        <v>0.3855707274553914</v>
       </c>
       <c r="L12">
-        <v>0.1022539936729387</v>
+        <v>0.1578434966794369</v>
       </c>
       <c r="M12">
-        <v>1.53305844835478</v>
+        <v>0.1374951459820615</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1004223672151277</v>
       </c>
       <c r="O12">
-        <v>0.4390828966281219</v>
+        <v>1.567407592836304</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4586896751061857</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.352053886888655</v>
+        <v>1.327488138775635</v>
       </c>
       <c r="C13">
-        <v>0.2612766534519864</v>
+        <v>0.2943951155503441</v>
       </c>
       <c r="D13">
-        <v>0.1096214461430662</v>
+        <v>0.1359056616138474</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9901168811674665</v>
+        <v>0.8157045595543053</v>
       </c>
       <c r="G13">
-        <v>0.693762415297897</v>
+        <v>0.6103334156114926</v>
       </c>
       <c r="H13">
-        <v>0.1155442722640743</v>
+        <v>0.1153052523796561</v>
       </c>
       <c r="I13">
-        <v>0.002559521545057564</v>
+        <v>0.002317898724954581</v>
       </c>
       <c r="J13">
-        <v>0.5088109671027894</v>
+        <v>0.3605444024860631</v>
       </c>
       <c r="K13">
-        <v>0.4576298261641156</v>
+        <v>0.3469018940260682</v>
       </c>
       <c r="L13">
-        <v>0.06278721586618374</v>
+        <v>0.1452503638358262</v>
       </c>
       <c r="M13">
-        <v>1.539225877512308</v>
+        <v>0.1208973922173548</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.0626316234852915</v>
       </c>
       <c r="O13">
-        <v>0.3643687048238675</v>
+        <v>1.569694239472142</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3804343200826281</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.349255021437784</v>
+        <v>1.32793494452855</v>
       </c>
       <c r="C14">
-        <v>0.2516139736548837</v>
+        <v>0.2805845289151705</v>
       </c>
       <c r="D14">
-        <v>0.08789949662171637</v>
+        <v>0.1088613799411462</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8797790877351588</v>
+        <v>0.7357330969678273</v>
       </c>
       <c r="G14">
-        <v>0.6166323160858553</v>
+        <v>0.5403854382822431</v>
       </c>
       <c r="H14">
-        <v>0.1653531419252801</v>
+        <v>0.16504913337711</v>
       </c>
       <c r="I14">
-        <v>0.002884428350997226</v>
+        <v>0.00253198647554953</v>
       </c>
       <c r="J14">
-        <v>0.4702598524942232</v>
+        <v>0.3525953697139457</v>
       </c>
       <c r="K14">
-        <v>0.4175600781362405</v>
+        <v>0.3249248021642757</v>
       </c>
       <c r="L14">
-        <v>0.05153459686514905</v>
+        <v>0.1385618270837856</v>
       </c>
       <c r="M14">
-        <v>1.523017454942845</v>
+        <v>0.110664458282173</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05250519496042472</v>
       </c>
       <c r="O14">
-        <v>0.3110377059466529</v>
+        <v>1.551364637297638</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3243819643585582</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.339354253824922</v>
+        <v>1.318935927807871</v>
       </c>
       <c r="C15">
-        <v>0.2481131377942205</v>
+        <v>0.2762642670406308</v>
       </c>
       <c r="D15">
-        <v>0.08257359272091236</v>
+        <v>0.101855794122713</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8515332246176825</v>
+        <v>0.7174366541858248</v>
       </c>
       <c r="G15">
-        <v>0.5966485605462566</v>
+        <v>0.5203288052833273</v>
       </c>
       <c r="H15">
-        <v>0.1780661162834178</v>
+        <v>0.1777305028712561</v>
       </c>
       <c r="I15">
-        <v>0.003156183951917413</v>
+        <v>0.002765345634704985</v>
       </c>
       <c r="J15">
-        <v>0.460670319573893</v>
+        <v>0.3546804869007332</v>
       </c>
       <c r="K15">
-        <v>0.4078197887948569</v>
+        <v>0.3207335974821959</v>
       </c>
       <c r="L15">
-        <v>0.05083488715746043</v>
+        <v>0.1374769380311331</v>
       </c>
       <c r="M15">
-        <v>1.509526389856092</v>
+        <v>0.1083595558374384</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05210472151900092</v>
       </c>
       <c r="O15">
-        <v>0.2967082654646376</v>
+        <v>1.537601985101645</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3092382118467683</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.253963164897044</v>
+        <v>1.234459889953456</v>
       </c>
       <c r="C16">
-        <v>0.2328201323432637</v>
+        <v>0.262184959021539</v>
       </c>
       <c r="D16">
-        <v>0.07877543486856808</v>
+        <v>0.09427856187598849</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8424621264971961</v>
+        <v>0.7309399169018889</v>
       </c>
       <c r="G16">
-        <v>0.5911823065295039</v>
+        <v>0.4998391038173793</v>
       </c>
       <c r="H16">
-        <v>0.1663321557381892</v>
+        <v>0.1658354860662996</v>
       </c>
       <c r="I16">
-        <v>0.004080272027817244</v>
+        <v>0.003382266723400917</v>
       </c>
       <c r="J16">
-        <v>0.462222966588385</v>
+        <v>0.3949637987121974</v>
       </c>
       <c r="K16">
-        <v>0.4115031025679912</v>
+        <v>0.3341580521382497</v>
       </c>
       <c r="L16">
-        <v>0.04948046740997558</v>
+        <v>0.1437015526522636</v>
       </c>
       <c r="M16">
-        <v>1.414508196446178</v>
+        <v>0.1109837173839701</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05119881964813722</v>
       </c>
       <c r="O16">
-        <v>0.2802209214143332</v>
+        <v>1.444607812276246</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2913045627653901</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.190148721562878</v>
+        <v>1.169975684259725</v>
       </c>
       <c r="C17">
-        <v>0.2263078229326538</v>
+        <v>0.2581818102112265</v>
       </c>
       <c r="D17">
-        <v>0.08697074639378854</v>
+        <v>0.1023498837380856</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8925234857751008</v>
+        <v>0.7820237305031839</v>
       </c>
       <c r="G17">
-        <v>0.6269225836615249</v>
+        <v>0.5220345908999917</v>
       </c>
       <c r="H17">
-        <v>0.1290854324246311</v>
+        <v>0.128499876318017</v>
       </c>
       <c r="I17">
-        <v>0.004676287356065068</v>
+        <v>0.00379683226492844</v>
       </c>
       <c r="J17">
-        <v>0.4834652913819468</v>
+        <v>0.4295098763847705</v>
       </c>
       <c r="K17">
-        <v>0.4349544891576045</v>
+        <v>0.3557407497834255</v>
       </c>
       <c r="L17">
-        <v>0.05159374322736543</v>
+        <v>0.152382540636113</v>
       </c>
       <c r="M17">
-        <v>1.350522809444868</v>
+        <v>0.1178854395189859</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05316275532496872</v>
       </c>
       <c r="O17">
-        <v>0.295121407440881</v>
+        <v>1.382638315713223</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.306529578350812</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.139015531387656</v>
+        <v>1.116324056437008</v>
       </c>
       <c r="C18">
-        <v>0.2253703779221468</v>
+        <v>0.262085935385727</v>
       </c>
       <c r="D18">
-        <v>0.1078241075726112</v>
+        <v>0.1256981794600733</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.008147604969409</v>
+        <v>0.8825163292728391</v>
       </c>
       <c r="G18">
-        <v>0.7090625956754764</v>
+        <v>0.5836618846313684</v>
       </c>
       <c r="H18">
-        <v>0.07622669158059381</v>
+        <v>0.07562999421693206</v>
       </c>
       <c r="I18">
-        <v>0.004630377830142862</v>
+        <v>0.003642653364262394</v>
       </c>
       <c r="J18">
-        <v>0.5274225878175685</v>
+        <v>0.4721228243181201</v>
       </c>
       <c r="K18">
-        <v>0.4828441752749981</v>
+        <v>0.3919306401776446</v>
       </c>
       <c r="L18">
-        <v>0.07126059637403515</v>
+        <v>0.1661301558748676</v>
       </c>
       <c r="M18">
-        <v>1.305163902851632</v>
+        <v>0.1310004881634654</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.0720869006093281</v>
       </c>
       <c r="O18">
-        <v>0.3408332889788852</v>
+        <v>1.340398549251745</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3541219898258987</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.100399287646013</v>
+        <v>1.074008492626831</v>
       </c>
       <c r="C19">
-        <v>0.2315115940139805</v>
+        <v>0.2750963324896816</v>
       </c>
       <c r="D19">
-        <v>0.1410690888880595</v>
+        <v>0.1635283583293159</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.171813186810184</v>
+        <v>1.019409300887503</v>
       </c>
       <c r="G19">
-        <v>0.8231803869358032</v>
+        <v>0.6707692350592964</v>
       </c>
       <c r="H19">
-        <v>0.03030694138146117</v>
+        <v>0.02977688098442144</v>
       </c>
       <c r="I19">
-        <v>0.004605746726059401</v>
+        <v>0.003696045314931951</v>
       </c>
       <c r="J19">
-        <v>0.5864418272807086</v>
+        <v>0.520616187345567</v>
       </c>
       <c r="K19">
-        <v>0.5473532224066915</v>
+        <v>0.4377098282854988</v>
       </c>
       <c r="L19">
-        <v>0.1250068189330733</v>
+        <v>0.1830794404230467</v>
       </c>
       <c r="M19">
-        <v>1.280217669180985</v>
+        <v>0.1483329496746002</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1244831473325689</v>
       </c>
       <c r="O19">
-        <v>0.4128604174897816</v>
+        <v>1.319369272649823</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4292567079231446</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.101210083940884</v>
+        <v>1.067352839090915</v>
       </c>
       <c r="C20">
-        <v>0.2529328621636751</v>
+        <v>0.3090021931890021</v>
       </c>
       <c r="D20">
-        <v>0.2064602049132986</v>
+        <v>0.2398179570637495</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.47577058384681</v>
+        <v>1.260418414002032</v>
       </c>
       <c r="G20">
-        <v>1.033817819668272</v>
+        <v>0.8363940535916186</v>
       </c>
       <c r="H20">
-        <v>0.002103403624577282</v>
+        <v>0.001809406621962051</v>
       </c>
       <c r="I20">
-        <v>0.003674666837110152</v>
+        <v>0.00313636617695856</v>
       </c>
       <c r="J20">
-        <v>0.6910840929865287</v>
+        <v>0.5832018378209654</v>
       </c>
       <c r="K20">
-        <v>0.6631222398743262</v>
+        <v>0.5123985537773095</v>
       </c>
       <c r="L20">
-        <v>0.2695013097850278</v>
+        <v>0.2083587275182559</v>
       </c>
       <c r="M20">
-        <v>1.309704626007203</v>
+        <v>0.1796533304113552</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2657072590172476</v>
       </c>
       <c r="O20">
-        <v>0.555571006553528</v>
+        <v>1.355360177974376</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5785791975546815</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.236829425767695</v>
+        <v>1.198878379781434</v>
       </c>
       <c r="C21">
-        <v>0.2865736949794666</v>
+        <v>0.3433132392614766</v>
       </c>
       <c r="D21">
-        <v>0.2364394226221833</v>
+        <v>0.2851964915802938</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.598734071906506</v>
+        <v>1.298992772264455</v>
       </c>
       <c r="G21">
-        <v>1.116863821269007</v>
+        <v>0.9527938870389363</v>
       </c>
       <c r="H21">
-        <v>0.0006134168815212782</v>
+        <v>0.0005336126800719043</v>
       </c>
       <c r="I21">
-        <v>0.002392520576417922</v>
+        <v>0.002392614971735263</v>
       </c>
       <c r="J21">
-        <v>0.7250352786347349</v>
+        <v>0.4828923100224642</v>
       </c>
       <c r="K21">
-        <v>0.6966080801752241</v>
+        <v>0.5025423210419717</v>
       </c>
       <c r="L21">
-        <v>0.3138673242232386</v>
+        <v>0.1983254500654432</v>
       </c>
       <c r="M21">
-        <v>1.473536121842272</v>
+        <v>0.1845396690098902</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3070900400604728</v>
       </c>
       <c r="O21">
-        <v>0.6358247925850193</v>
+        <v>1.51713862385003</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6643705662610415</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.328783974632472</v>
+        <v>1.288546822033453</v>
       </c>
       <c r="C22">
-        <v>0.3066307744171581</v>
+        <v>0.3625247316712148</v>
       </c>
       <c r="D22">
-        <v>0.2523089816551902</v>
+        <v>0.3116831511749751</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.671258738299542</v>
+        <v>1.314102868953569</v>
       </c>
       <c r="G22">
-        <v>1.167312010922018</v>
+        <v>1.033758256002272</v>
       </c>
       <c r="H22">
-        <v>0.0001646133092254587</v>
+        <v>0.0001509027874015967</v>
       </c>
       <c r="I22">
-        <v>0.001633647158540974</v>
+        <v>0.001796965724463639</v>
       </c>
       <c r="J22">
-        <v>0.7453384110470012</v>
+        <v>0.4196987885149923</v>
       </c>
       <c r="K22">
-        <v>0.7168658146513422</v>
+        <v>0.4937202438476902</v>
       </c>
       <c r="L22">
-        <v>0.3349049774880228</v>
+        <v>0.191190445962178</v>
       </c>
       <c r="M22">
-        <v>1.580846222660682</v>
+        <v>0.1869805843110122</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3262235438878491</v>
       </c>
       <c r="O22">
-        <v>0.6816240703186551</v>
+        <v>1.622124952578929</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7136816673699755</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.280924723724894</v>
+        <v>1.24129211615076</v>
       </c>
       <c r="C23">
-        <v>0.2942730677051486</v>
+        <v>0.3517228305970832</v>
       </c>
       <c r="D23">
-        <v>0.2430730005613242</v>
+        <v>0.2955834683134526</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.637764003372112</v>
+        <v>1.316164573935239</v>
       </c>
       <c r="G23">
-        <v>1.145398133042747</v>
+        <v>0.9870181336791575</v>
       </c>
       <c r="H23">
-        <v>0.0003657072719316368</v>
+        <v>0.0003213901392573604</v>
       </c>
       <c r="I23">
-        <v>0.001683010476358326</v>
+        <v>0.001707668708315957</v>
       </c>
       <c r="J23">
-        <v>0.7370504320561508</v>
+        <v>0.4655771286943491</v>
       </c>
       <c r="K23">
-        <v>0.7096138133285379</v>
+        <v>0.5036905757704417</v>
       </c>
       <c r="L23">
-        <v>0.323870881093498</v>
+        <v>0.1967419840421343</v>
       </c>
       <c r="M23">
-        <v>1.522406529235951</v>
+        <v>0.1878439203659426</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3162961086847389</v>
       </c>
       <c r="O23">
-        <v>0.6565990711395955</v>
+        <v>1.565993518351405</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.6866192642725153</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.097917080314829</v>
+        <v>1.063561210082554</v>
       </c>
       <c r="C24">
-        <v>0.2507997649412346</v>
+        <v>0.3074776340809251</v>
       </c>
       <c r="D24">
-        <v>0.2095624098304256</v>
+        <v>0.2434531459960851</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.504031370444807</v>
+        <v>1.28432970536052</v>
       </c>
       <c r="G24">
-        <v>1.055662627909911</v>
+        <v>0.8531609061916043</v>
       </c>
       <c r="H24">
-        <v>0.001894964307206592</v>
+        <v>0.001609754957137222</v>
       </c>
       <c r="I24">
-        <v>0.003137609955762954</v>
+        <v>0.002508381012552796</v>
       </c>
       <c r="J24">
-        <v>0.7023024357200569</v>
+        <v>0.5930198871290457</v>
       </c>
       <c r="K24">
-        <v>0.6769375244917128</v>
+        <v>0.5226550825923297</v>
       </c>
       <c r="L24">
-        <v>0.281925869185045</v>
+        <v>0.2121618346447036</v>
       </c>
       <c r="M24">
-        <v>1.303887743384394</v>
+        <v>0.1835271400025285</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2779074754438682</v>
       </c>
       <c r="O24">
-        <v>0.5631689256104906</v>
+        <v>1.350027877828637</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5865866155593693</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9008603853990849</v>
+        <v>0.8770425869389271</v>
       </c>
       <c r="C25">
-        <v>0.2050979905146306</v>
+        <v>0.2485116154625899</v>
       </c>
       <c r="D25">
-        <v>0.17381537075957</v>
+        <v>0.2002461758954439</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.363178143382001</v>
+        <v>1.186935371437869</v>
       </c>
       <c r="G25">
-        <v>0.9618799788610914</v>
+        <v>0.791071769656341</v>
       </c>
       <c r="H25">
-        <v>0.005033740706143375</v>
+        <v>0.004342006062991399</v>
       </c>
       <c r="I25">
-        <v>0.006213414656268235</v>
+        <v>0.004562508291250822</v>
       </c>
       <c r="J25">
-        <v>0.6665307878530626</v>
+        <v>0.5818413703778873</v>
       </c>
       <c r="K25">
-        <v>0.6429973964826203</v>
+        <v>0.5133713404474207</v>
       </c>
       <c r="L25">
-        <v>0.2369396844066145</v>
+        <v>0.2185637137376872</v>
       </c>
       <c r="M25">
-        <v>1.069781638260253</v>
+        <v>0.1687445134235475</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2353699998826002</v>
       </c>
       <c r="O25">
-        <v>0.4631051118337908</v>
+        <v>1.107571592125822</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.4815004374448435</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
